--- a/src/main/resources/CadreAppointmentAndRemovalApprovalInfo.xlsx
+++ b/src/main/resources/CadreAppointmentAndRemovalApprovalInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26001" windowHeight="11655"/>
+    <workbookView windowWidth="30615" windowHeight="14130"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -155,12 +155,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -207,8 +207,159 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -221,8 +372,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -232,42 +569,42 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -275,45 +612,149 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -322,13 +763,136 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -342,31 +906,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="25" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="25" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="25" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="25" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="25" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -391,15 +955,64 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="常规_有关报表" xfId="6"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="常规_有关报表" xfId="25"/>
+    <cellStyle name="计算" xfId="26" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="27" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="28" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="30" builtinId="24"/>
+    <cellStyle name="汇总" xfId="31" builtinId="25"/>
+    <cellStyle name="好" xfId="32" builtinId="26"/>
+    <cellStyle name="适中" xfId="33" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="34" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="35" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="36" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="37" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="38" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="39" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="40" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="41" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="42" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="43" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="44" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
   </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -449,71 +1062,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -725,37 +1338,36 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P502"/>
+  <dimension ref="A1:P2014"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P1" sqref="P1"/>
+      <selection pane="bottomRight" activeCell="D2013" sqref="D2013"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="39.75" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="9" style="13"/>
-    <col min="3" max="3" width="10.7064220183486" style="13" customWidth="1"/>
-    <col min="4" max="4" width="12.7522935779817" style="13" customWidth="1"/>
-    <col min="5" max="5" width="10.7155963302752" style="13" customWidth="1"/>
-    <col min="6" max="7" width="10.2110091743119" style="13" customWidth="1"/>
-    <col min="8" max="8" width="15.7522935779817" style="13" customWidth="1"/>
-    <col min="9" max="9" width="17.9449541284404" style="13" customWidth="1"/>
-    <col min="10" max="12" width="15.7522935779817" style="13" customWidth="1"/>
-    <col min="13" max="13" width="15.5779816513761" style="14" customWidth="1"/>
-    <col min="14" max="14" width="20.1834862385321" style="14" customWidth="1"/>
-    <col min="15" max="15" width="19.3211009174312" style="14" customWidth="1"/>
-    <col min="16" max="16" width="20.4311926605505" style="14" customWidth="1"/>
+    <col min="3" max="3" width="10.7083333333333" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12.75" style="13" customWidth="1"/>
+    <col min="5" max="5" width="10.7166666666667" style="13" customWidth="1"/>
+    <col min="6" max="7" width="10.2083333333333" style="13" customWidth="1"/>
+    <col min="8" max="8" width="15.75" style="13" customWidth="1"/>
+    <col min="9" max="9" width="17.9416666666667" style="13" customWidth="1"/>
+    <col min="10" max="12" width="15.75" style="13" customWidth="1"/>
+    <col min="13" max="13" width="15.575" style="14" customWidth="1"/>
+    <col min="14" max="14" width="20.1833333333333" style="14" customWidth="1"/>
+    <col min="15" max="15" width="19.325" style="14" customWidth="1"/>
+    <col min="16" max="16" width="20.4333333333333" style="14" customWidth="1"/>
     <col min="17" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
@@ -3346,6 +3958,7566 @@
     <row r="502" customHeight="1" spans="1:1">
       <c r="A502" s="13">
         <v>501</v>
+      </c>
+    </row>
+    <row r="503" customHeight="1" spans="1:1">
+      <c r="A503" s="13">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="504" customHeight="1" spans="1:1">
+      <c r="A504" s="13">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="505" customHeight="1" spans="1:1">
+      <c r="A505" s="13">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="506" customHeight="1" spans="1:1">
+      <c r="A506" s="13">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="507" customHeight="1" spans="1:1">
+      <c r="A507" s="13">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="508" customHeight="1" spans="1:1">
+      <c r="A508" s="13">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="509" customHeight="1" spans="1:1">
+      <c r="A509" s="13">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="510" customHeight="1" spans="1:1">
+      <c r="A510" s="13">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="511" customHeight="1" spans="1:1">
+      <c r="A511" s="13">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="512" customHeight="1" spans="1:1">
+      <c r="A512" s="13">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="513" customHeight="1" spans="1:1">
+      <c r="A513" s="13">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="514" customHeight="1" spans="1:1">
+      <c r="A514" s="13">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="515" customHeight="1" spans="1:1">
+      <c r="A515" s="13">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="516" customHeight="1" spans="1:1">
+      <c r="A516" s="13">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="517" customHeight="1" spans="1:1">
+      <c r="A517" s="13">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="518" customHeight="1" spans="1:1">
+      <c r="A518" s="13">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="519" customHeight="1" spans="1:1">
+      <c r="A519" s="13">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="520" customHeight="1" spans="1:1">
+      <c r="A520" s="13">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="521" customHeight="1" spans="1:1">
+      <c r="A521" s="13">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="522" customHeight="1" spans="1:1">
+      <c r="A522" s="13">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="523" customHeight="1" spans="1:1">
+      <c r="A523" s="13">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="524" customHeight="1" spans="1:1">
+      <c r="A524" s="13">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="525" customHeight="1" spans="1:1">
+      <c r="A525" s="13">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="526" customHeight="1" spans="1:1">
+      <c r="A526" s="13">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="527" customHeight="1" spans="1:1">
+      <c r="A527" s="13">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="528" customHeight="1" spans="1:1">
+      <c r="A528" s="13">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="529" customHeight="1" spans="1:1">
+      <c r="A529" s="13">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="530" customHeight="1" spans="1:1">
+      <c r="A530" s="13">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="531" customHeight="1" spans="1:1">
+      <c r="A531" s="13">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="532" customHeight="1" spans="1:1">
+      <c r="A532" s="13">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="533" customHeight="1" spans="1:1">
+      <c r="A533" s="13">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="534" customHeight="1" spans="1:1">
+      <c r="A534" s="13">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="535" customHeight="1" spans="1:1">
+      <c r="A535" s="13">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="536" customHeight="1" spans="1:1">
+      <c r="A536" s="13">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="537" customHeight="1" spans="1:1">
+      <c r="A537" s="13">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="538" customHeight="1" spans="1:1">
+      <c r="A538" s="13">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="539" customHeight="1" spans="1:1">
+      <c r="A539" s="13">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="540" customHeight="1" spans="1:1">
+      <c r="A540" s="13">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="541" customHeight="1" spans="1:1">
+      <c r="A541" s="13">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="542" customHeight="1" spans="1:1">
+      <c r="A542" s="13">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="543" customHeight="1" spans="1:1">
+      <c r="A543" s="13">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="544" customHeight="1" spans="1:1">
+      <c r="A544" s="13">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="545" customHeight="1" spans="1:1">
+      <c r="A545" s="13">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="546" customHeight="1" spans="1:1">
+      <c r="A546" s="13">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="547" customHeight="1" spans="1:1">
+      <c r="A547" s="13">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="548" customHeight="1" spans="1:1">
+      <c r="A548" s="13">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="549" customHeight="1" spans="1:1">
+      <c r="A549" s="13">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="550" customHeight="1" spans="1:1">
+      <c r="A550" s="13">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="551" customHeight="1" spans="1:1">
+      <c r="A551" s="13">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="552" customHeight="1" spans="1:1">
+      <c r="A552" s="13">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="553" customHeight="1" spans="1:1">
+      <c r="A553" s="13">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="554" customHeight="1" spans="1:1">
+      <c r="A554" s="13">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="555" customHeight="1" spans="1:1">
+      <c r="A555" s="13">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="556" customHeight="1" spans="1:1">
+      <c r="A556" s="13">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="557" customHeight="1" spans="1:1">
+      <c r="A557" s="13">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="558" customHeight="1" spans="1:1">
+      <c r="A558" s="13">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="559" customHeight="1" spans="1:1">
+      <c r="A559" s="13">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="560" customHeight="1" spans="1:1">
+      <c r="A560" s="13">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="561" customHeight="1" spans="1:1">
+      <c r="A561" s="13">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="562" customHeight="1" spans="1:1">
+      <c r="A562" s="13">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="563" customHeight="1" spans="1:1">
+      <c r="A563" s="13">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="564" customHeight="1" spans="1:1">
+      <c r="A564" s="13">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="565" customHeight="1" spans="1:1">
+      <c r="A565" s="13">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="566" customHeight="1" spans="1:1">
+      <c r="A566" s="13">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="567" customHeight="1" spans="1:1">
+      <c r="A567" s="13">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="568" customHeight="1" spans="1:1">
+      <c r="A568" s="13">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="569" customHeight="1" spans="1:1">
+      <c r="A569" s="13">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="570" customHeight="1" spans="1:1">
+      <c r="A570" s="13">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="571" customHeight="1" spans="1:1">
+      <c r="A571" s="13">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="572" customHeight="1" spans="1:1">
+      <c r="A572" s="13">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="573" customHeight="1" spans="1:1">
+      <c r="A573" s="13">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="574" customHeight="1" spans="1:1">
+      <c r="A574" s="13">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="575" customHeight="1" spans="1:1">
+      <c r="A575" s="13">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="576" customHeight="1" spans="1:1">
+      <c r="A576" s="13">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="577" customHeight="1" spans="1:1">
+      <c r="A577" s="13">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="578" customHeight="1" spans="1:1">
+      <c r="A578" s="13">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="579" customHeight="1" spans="1:1">
+      <c r="A579" s="13">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="580" customHeight="1" spans="1:1">
+      <c r="A580" s="13">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="581" customHeight="1" spans="1:1">
+      <c r="A581" s="13">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="582" customHeight="1" spans="1:1">
+      <c r="A582" s="13">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="583" customHeight="1" spans="1:1">
+      <c r="A583" s="13">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="584" customHeight="1" spans="1:1">
+      <c r="A584" s="13">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="585" customHeight="1" spans="1:1">
+      <c r="A585" s="13">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="586" customHeight="1" spans="1:1">
+      <c r="A586" s="13">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="587" customHeight="1" spans="1:1">
+      <c r="A587" s="13">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="588" customHeight="1" spans="1:1">
+      <c r="A588" s="13">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="589" customHeight="1" spans="1:1">
+      <c r="A589" s="13">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="590" customHeight="1" spans="1:1">
+      <c r="A590" s="13">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="591" customHeight="1" spans="1:1">
+      <c r="A591" s="13">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="592" customHeight="1" spans="1:1">
+      <c r="A592" s="13">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="593" customHeight="1" spans="1:1">
+      <c r="A593" s="13">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="594" customHeight="1" spans="1:1">
+      <c r="A594" s="13">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="595" customHeight="1" spans="1:1">
+      <c r="A595" s="13">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="596" customHeight="1" spans="1:1">
+      <c r="A596" s="13">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="597" customHeight="1" spans="1:1">
+      <c r="A597" s="13">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="598" customHeight="1" spans="1:1">
+      <c r="A598" s="13">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="599" customHeight="1" spans="1:1">
+      <c r="A599" s="13">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="600" customHeight="1" spans="1:1">
+      <c r="A600" s="13">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="601" customHeight="1" spans="1:1">
+      <c r="A601" s="13">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="602" customHeight="1" spans="1:1">
+      <c r="A602" s="13">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="603" customHeight="1" spans="1:1">
+      <c r="A603" s="13">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="604" customHeight="1" spans="1:1">
+      <c r="A604" s="13">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="605" customHeight="1" spans="1:1">
+      <c r="A605" s="13">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="606" customHeight="1" spans="1:1">
+      <c r="A606" s="13">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="607" customHeight="1" spans="1:1">
+      <c r="A607" s="13">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="608" customHeight="1" spans="1:1">
+      <c r="A608" s="13">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="609" customHeight="1" spans="1:1">
+      <c r="A609" s="13">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="610" customHeight="1" spans="1:1">
+      <c r="A610" s="13">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="611" customHeight="1" spans="1:1">
+      <c r="A611" s="13">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="612" customHeight="1" spans="1:1">
+      <c r="A612" s="13">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="613" customHeight="1" spans="1:1">
+      <c r="A613" s="13">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="614" customHeight="1" spans="1:1">
+      <c r="A614" s="13">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="615" customHeight="1" spans="1:1">
+      <c r="A615" s="13">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="616" customHeight="1" spans="1:1">
+      <c r="A616" s="13">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="617" customHeight="1" spans="1:1">
+      <c r="A617" s="13">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="618" customHeight="1" spans="1:1">
+      <c r="A618" s="13">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="619" customHeight="1" spans="1:1">
+      <c r="A619" s="13">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="620" customHeight="1" spans="1:1">
+      <c r="A620" s="13">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="621" customHeight="1" spans="1:1">
+      <c r="A621" s="13">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="622" customHeight="1" spans="1:1">
+      <c r="A622" s="13">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="623" customHeight="1" spans="1:1">
+      <c r="A623" s="13">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="624" customHeight="1" spans="1:1">
+      <c r="A624" s="13">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="625" customHeight="1" spans="1:1">
+      <c r="A625" s="13">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="626" customHeight="1" spans="1:1">
+      <c r="A626" s="13">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="627" customHeight="1" spans="1:1">
+      <c r="A627" s="13">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="628" customHeight="1" spans="1:1">
+      <c r="A628" s="13">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="629" customHeight="1" spans="1:1">
+      <c r="A629" s="13">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="630" customHeight="1" spans="1:1">
+      <c r="A630" s="13">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="631" customHeight="1" spans="1:1">
+      <c r="A631" s="13">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="632" customHeight="1" spans="1:1">
+      <c r="A632" s="13">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="633" customHeight="1" spans="1:1">
+      <c r="A633" s="13">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="634" customHeight="1" spans="1:1">
+      <c r="A634" s="13">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="635" customHeight="1" spans="1:1">
+      <c r="A635" s="13">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="636" customHeight="1" spans="1:1">
+      <c r="A636" s="13">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="637" customHeight="1" spans="1:1">
+      <c r="A637" s="13">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="638" customHeight="1" spans="1:1">
+      <c r="A638" s="13">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="639" customHeight="1" spans="1:1">
+      <c r="A639" s="13">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="640" customHeight="1" spans="1:1">
+      <c r="A640" s="13">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="641" customHeight="1" spans="1:1">
+      <c r="A641" s="13">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="642" customHeight="1" spans="1:1">
+      <c r="A642" s="13">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="643" customHeight="1" spans="1:1">
+      <c r="A643" s="13">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="644" customHeight="1" spans="1:1">
+      <c r="A644" s="13">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="645" customHeight="1" spans="1:1">
+      <c r="A645" s="13">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="646" customHeight="1" spans="1:1">
+      <c r="A646" s="13">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="647" customHeight="1" spans="1:1">
+      <c r="A647" s="13">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="648" customHeight="1" spans="1:1">
+      <c r="A648" s="13">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="649" customHeight="1" spans="1:1">
+      <c r="A649" s="13">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="650" customHeight="1" spans="1:1">
+      <c r="A650" s="13">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="651" customHeight="1" spans="1:1">
+      <c r="A651" s="13">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="652" customHeight="1" spans="1:1">
+      <c r="A652" s="13">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="653" customHeight="1" spans="1:1">
+      <c r="A653" s="13">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="654" customHeight="1" spans="1:1">
+      <c r="A654" s="13">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="655" customHeight="1" spans="1:1">
+      <c r="A655" s="13">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="656" customHeight="1" spans="1:1">
+      <c r="A656" s="13">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="657" customHeight="1" spans="1:1">
+      <c r="A657" s="13">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="658" customHeight="1" spans="1:1">
+      <c r="A658" s="13">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="659" customHeight="1" spans="1:1">
+      <c r="A659" s="13">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="660" customHeight="1" spans="1:1">
+      <c r="A660" s="13">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="661" customHeight="1" spans="1:1">
+      <c r="A661" s="13">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="662" customHeight="1" spans="1:1">
+      <c r="A662" s="13">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="663" customHeight="1" spans="1:1">
+      <c r="A663" s="13">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="664" customHeight="1" spans="1:1">
+      <c r="A664" s="13">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="665" customHeight="1" spans="1:1">
+      <c r="A665" s="13">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="666" customHeight="1" spans="1:1">
+      <c r="A666" s="13">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="667" customHeight="1" spans="1:1">
+      <c r="A667" s="13">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="668" customHeight="1" spans="1:1">
+      <c r="A668" s="13">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="669" customHeight="1" spans="1:1">
+      <c r="A669" s="13">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="670" customHeight="1" spans="1:1">
+      <c r="A670" s="13">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="671" customHeight="1" spans="1:1">
+      <c r="A671" s="13">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="672" customHeight="1" spans="1:1">
+      <c r="A672" s="13">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="673" customHeight="1" spans="1:1">
+      <c r="A673" s="13">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="674" customHeight="1" spans="1:1">
+      <c r="A674" s="13">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="675" customHeight="1" spans="1:1">
+      <c r="A675" s="13">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="676" customHeight="1" spans="1:1">
+      <c r="A676" s="13">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="677" customHeight="1" spans="1:1">
+      <c r="A677" s="13">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="678" customHeight="1" spans="1:1">
+      <c r="A678" s="13">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="679" customHeight="1" spans="1:1">
+      <c r="A679" s="13">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="680" customHeight="1" spans="1:1">
+      <c r="A680" s="13">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="681" customHeight="1" spans="1:1">
+      <c r="A681" s="13">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="682" customHeight="1" spans="1:1">
+      <c r="A682" s="13">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="683" customHeight="1" spans="1:1">
+      <c r="A683" s="13">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="684" customHeight="1" spans="1:1">
+      <c r="A684" s="13">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="685" customHeight="1" spans="1:1">
+      <c r="A685" s="13">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="686" customHeight="1" spans="1:1">
+      <c r="A686" s="13">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="687" customHeight="1" spans="1:1">
+      <c r="A687" s="13">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="688" customHeight="1" spans="1:1">
+      <c r="A688" s="13">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="689" customHeight="1" spans="1:1">
+      <c r="A689" s="13">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="690" customHeight="1" spans="1:1">
+      <c r="A690" s="13">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="691" customHeight="1" spans="1:1">
+      <c r="A691" s="13">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="692" customHeight="1" spans="1:1">
+      <c r="A692" s="13">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="693" customHeight="1" spans="1:1">
+      <c r="A693" s="13">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="694" customHeight="1" spans="1:1">
+      <c r="A694" s="13">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="695" customHeight="1" spans="1:1">
+      <c r="A695" s="13">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="696" customHeight="1" spans="1:1">
+      <c r="A696" s="13">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="697" customHeight="1" spans="1:1">
+      <c r="A697" s="13">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="698" customHeight="1" spans="1:1">
+      <c r="A698" s="13">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="699" customHeight="1" spans="1:1">
+      <c r="A699" s="13">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="700" customHeight="1" spans="1:1">
+      <c r="A700" s="13">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="701" customHeight="1" spans="1:1">
+      <c r="A701" s="13">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="702" customHeight="1" spans="1:1">
+      <c r="A702" s="13">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="703" customHeight="1" spans="1:1">
+      <c r="A703" s="13">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="704" customHeight="1" spans="1:1">
+      <c r="A704" s="13">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="705" customHeight="1" spans="1:1">
+      <c r="A705" s="13">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="706" customHeight="1" spans="1:1">
+      <c r="A706" s="13">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="707" customHeight="1" spans="1:1">
+      <c r="A707" s="13">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="708" customHeight="1" spans="1:1">
+      <c r="A708" s="13">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="709" customHeight="1" spans="1:1">
+      <c r="A709" s="13">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="710" customHeight="1" spans="1:1">
+      <c r="A710" s="13">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="711" customHeight="1" spans="1:1">
+      <c r="A711" s="13">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="712" customHeight="1" spans="1:1">
+      <c r="A712" s="13">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="713" customHeight="1" spans="1:1">
+      <c r="A713" s="13">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="714" customHeight="1" spans="1:1">
+      <c r="A714" s="13">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="715" customHeight="1" spans="1:1">
+      <c r="A715" s="13">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="716" customHeight="1" spans="1:1">
+      <c r="A716" s="13">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="717" customHeight="1" spans="1:1">
+      <c r="A717" s="13">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="718" customHeight="1" spans="1:1">
+      <c r="A718" s="13">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="719" customHeight="1" spans="1:1">
+      <c r="A719" s="13">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="720" customHeight="1" spans="1:1">
+      <c r="A720" s="13">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="721" customHeight="1" spans="1:1">
+      <c r="A721" s="13">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="722" customHeight="1" spans="1:1">
+      <c r="A722" s="13">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="723" customHeight="1" spans="1:1">
+      <c r="A723" s="13">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="724" customHeight="1" spans="1:1">
+      <c r="A724" s="13">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="725" customHeight="1" spans="1:1">
+      <c r="A725" s="13">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="726" customHeight="1" spans="1:1">
+      <c r="A726" s="13">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="727" customHeight="1" spans="1:1">
+      <c r="A727" s="13">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="728" customHeight="1" spans="1:1">
+      <c r="A728" s="13">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="729" customHeight="1" spans="1:1">
+      <c r="A729" s="13">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="730" customHeight="1" spans="1:1">
+      <c r="A730" s="13">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="731" customHeight="1" spans="1:1">
+      <c r="A731" s="13">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="732" customHeight="1" spans="1:1">
+      <c r="A732" s="13">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="733" customHeight="1" spans="1:1">
+      <c r="A733" s="13">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="734" customHeight="1" spans="1:1">
+      <c r="A734" s="13">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="735" customHeight="1" spans="1:1">
+      <c r="A735" s="13">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="736" customHeight="1" spans="1:1">
+      <c r="A736" s="13">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="737" customHeight="1" spans="1:1">
+      <c r="A737" s="13">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="738" customHeight="1" spans="1:1">
+      <c r="A738" s="13">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="739" customHeight="1" spans="1:1">
+      <c r="A739" s="13">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="740" customHeight="1" spans="1:1">
+      <c r="A740" s="13">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="741" customHeight="1" spans="1:1">
+      <c r="A741" s="13">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="742" customHeight="1" spans="1:1">
+      <c r="A742" s="13">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="743" customHeight="1" spans="1:1">
+      <c r="A743" s="13">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="744" customHeight="1" spans="1:1">
+      <c r="A744" s="13">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="745" customHeight="1" spans="1:1">
+      <c r="A745" s="13">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="746" customHeight="1" spans="1:1">
+      <c r="A746" s="13">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="747" customHeight="1" spans="1:1">
+      <c r="A747" s="13">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="748" customHeight="1" spans="1:1">
+      <c r="A748" s="13">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="749" customHeight="1" spans="1:1">
+      <c r="A749" s="13">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="750" customHeight="1" spans="1:1">
+      <c r="A750" s="13">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="751" customHeight="1" spans="1:1">
+      <c r="A751" s="13">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="752" customHeight="1" spans="1:1">
+      <c r="A752" s="13">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="753" customHeight="1" spans="1:1">
+      <c r="A753" s="13">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="754" customHeight="1" spans="1:1">
+      <c r="A754" s="13">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="755" customHeight="1" spans="1:1">
+      <c r="A755" s="13">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="756" customHeight="1" spans="1:1">
+      <c r="A756" s="13">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="757" customHeight="1" spans="1:1">
+      <c r="A757" s="13">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="758" customHeight="1" spans="1:1">
+      <c r="A758" s="13">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="759" customHeight="1" spans="1:1">
+      <c r="A759" s="13">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="760" customHeight="1" spans="1:1">
+      <c r="A760" s="13">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="761" customHeight="1" spans="1:1">
+      <c r="A761" s="13">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="762" customHeight="1" spans="1:1">
+      <c r="A762" s="13">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="763" customHeight="1" spans="1:1">
+      <c r="A763" s="13">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="764" customHeight="1" spans="1:1">
+      <c r="A764" s="13">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="765" customHeight="1" spans="1:1">
+      <c r="A765" s="13">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="766" customHeight="1" spans="1:1">
+      <c r="A766" s="13">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="767" customHeight="1" spans="1:1">
+      <c r="A767" s="13">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="768" customHeight="1" spans="1:1">
+      <c r="A768" s="13">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="769" customHeight="1" spans="1:1">
+      <c r="A769" s="13">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="770" customHeight="1" spans="1:1">
+      <c r="A770" s="13">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="771" customHeight="1" spans="1:1">
+      <c r="A771" s="13">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="772" customHeight="1" spans="1:1">
+      <c r="A772" s="13">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="773" customHeight="1" spans="1:1">
+      <c r="A773" s="13">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="774" customHeight="1" spans="1:1">
+      <c r="A774" s="13">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="775" customHeight="1" spans="1:1">
+      <c r="A775" s="13">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="776" customHeight="1" spans="1:1">
+      <c r="A776" s="13">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="777" customHeight="1" spans="1:1">
+      <c r="A777" s="13">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="778" customHeight="1" spans="1:1">
+      <c r="A778" s="13">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="779" customHeight="1" spans="1:1">
+      <c r="A779" s="13">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="780" customHeight="1" spans="1:1">
+      <c r="A780" s="13">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="781" customHeight="1" spans="1:1">
+      <c r="A781" s="13">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="782" customHeight="1" spans="1:1">
+      <c r="A782" s="13">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="783" customHeight="1" spans="1:1">
+      <c r="A783" s="13">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="784" customHeight="1" spans="1:1">
+      <c r="A784" s="13">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="785" customHeight="1" spans="1:1">
+      <c r="A785" s="13">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="786" customHeight="1" spans="1:1">
+      <c r="A786" s="13">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="787" customHeight="1" spans="1:1">
+      <c r="A787" s="13">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="788" customHeight="1" spans="1:1">
+      <c r="A788" s="13">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="789" customHeight="1" spans="1:1">
+      <c r="A789" s="13">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="790" customHeight="1" spans="1:1">
+      <c r="A790" s="13">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="791" customHeight="1" spans="1:1">
+      <c r="A791" s="13">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="792" customHeight="1" spans="1:1">
+      <c r="A792" s="13">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="793" customHeight="1" spans="1:1">
+      <c r="A793" s="13">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="794" customHeight="1" spans="1:1">
+      <c r="A794" s="13">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="795" customHeight="1" spans="1:1">
+      <c r="A795" s="13">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="796" customHeight="1" spans="1:1">
+      <c r="A796" s="13">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="797" customHeight="1" spans="1:1">
+      <c r="A797" s="13">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="798" customHeight="1" spans="1:1">
+      <c r="A798" s="13">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="799" customHeight="1" spans="1:1">
+      <c r="A799" s="13">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="800" customHeight="1" spans="1:1">
+      <c r="A800" s="13">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="801" customHeight="1" spans="1:1">
+      <c r="A801" s="13">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="802" customHeight="1" spans="1:1">
+      <c r="A802" s="13">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="803" customHeight="1" spans="1:1">
+      <c r="A803" s="13">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="804" customHeight="1" spans="1:1">
+      <c r="A804" s="13">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="805" customHeight="1" spans="1:1">
+      <c r="A805" s="13">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="806" customHeight="1" spans="1:1">
+      <c r="A806" s="13">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="807" customHeight="1" spans="1:1">
+      <c r="A807" s="13">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="808" customHeight="1" spans="1:1">
+      <c r="A808" s="13">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="809" customHeight="1" spans="1:1">
+      <c r="A809" s="13">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="810" customHeight="1" spans="1:1">
+      <c r="A810" s="13">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="811" customHeight="1" spans="1:1">
+      <c r="A811" s="13">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="812" customHeight="1" spans="1:1">
+      <c r="A812" s="13">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="813" customHeight="1" spans="1:1">
+      <c r="A813" s="13">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="814" customHeight="1" spans="1:1">
+      <c r="A814" s="13">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="815" customHeight="1" spans="1:1">
+      <c r="A815" s="13">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="816" customHeight="1" spans="1:1">
+      <c r="A816" s="13">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="817" customHeight="1" spans="1:1">
+      <c r="A817" s="13">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="818" customHeight="1" spans="1:1">
+      <c r="A818" s="13">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="819" customHeight="1" spans="1:1">
+      <c r="A819" s="13">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="820" customHeight="1" spans="1:1">
+      <c r="A820" s="13">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="821" customHeight="1" spans="1:1">
+      <c r="A821" s="13">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="822" customHeight="1" spans="1:1">
+      <c r="A822" s="13">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="823" customHeight="1" spans="1:1">
+      <c r="A823" s="13">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="824" customHeight="1" spans="1:1">
+      <c r="A824" s="13">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="825" customHeight="1" spans="1:1">
+      <c r="A825" s="13">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="826" customHeight="1" spans="1:1">
+      <c r="A826" s="13">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="827" customHeight="1" spans="1:1">
+      <c r="A827" s="13">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="828" customHeight="1" spans="1:1">
+      <c r="A828" s="13">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="829" customHeight="1" spans="1:1">
+      <c r="A829" s="13">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="830" customHeight="1" spans="1:1">
+      <c r="A830" s="13">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="831" customHeight="1" spans="1:1">
+      <c r="A831" s="13">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="832" customHeight="1" spans="1:1">
+      <c r="A832" s="13">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="833" customHeight="1" spans="1:1">
+      <c r="A833" s="13">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="834" customHeight="1" spans="1:1">
+      <c r="A834" s="13">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="835" customHeight="1" spans="1:1">
+      <c r="A835" s="13">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="836" customHeight="1" spans="1:1">
+      <c r="A836" s="13">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="837" customHeight="1" spans="1:1">
+      <c r="A837" s="13">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="838" customHeight="1" spans="1:1">
+      <c r="A838" s="13">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="839" customHeight="1" spans="1:1">
+      <c r="A839" s="13">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="840" customHeight="1" spans="1:1">
+      <c r="A840" s="13">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="841" customHeight="1" spans="1:1">
+      <c r="A841" s="13">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="842" customHeight="1" spans="1:1">
+      <c r="A842" s="13">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="843" customHeight="1" spans="1:1">
+      <c r="A843" s="13">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="844" customHeight="1" spans="1:1">
+      <c r="A844" s="13">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="845" customHeight="1" spans="1:1">
+      <c r="A845" s="13">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="846" customHeight="1" spans="1:1">
+      <c r="A846" s="13">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="847" customHeight="1" spans="1:1">
+      <c r="A847" s="13">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="848" customHeight="1" spans="1:1">
+      <c r="A848" s="13">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="849" customHeight="1" spans="1:1">
+      <c r="A849" s="13">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="850" customHeight="1" spans="1:1">
+      <c r="A850" s="13">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="851" customHeight="1" spans="1:1">
+      <c r="A851" s="13">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="852" customHeight="1" spans="1:1">
+      <c r="A852" s="13">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="853" customHeight="1" spans="1:1">
+      <c r="A853" s="13">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="854" customHeight="1" spans="1:1">
+      <c r="A854" s="13">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="855" customHeight="1" spans="1:1">
+      <c r="A855" s="13">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="856" customHeight="1" spans="1:1">
+      <c r="A856" s="13">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="857" customHeight="1" spans="1:1">
+      <c r="A857" s="13">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="858" customHeight="1" spans="1:1">
+      <c r="A858" s="13">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="859" customHeight="1" spans="1:1">
+      <c r="A859" s="13">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="860" customHeight="1" spans="1:1">
+      <c r="A860" s="13">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="861" customHeight="1" spans="1:1">
+      <c r="A861" s="13">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="862" customHeight="1" spans="1:1">
+      <c r="A862" s="13">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="863" customHeight="1" spans="1:1">
+      <c r="A863" s="13">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="864" customHeight="1" spans="1:1">
+      <c r="A864" s="13">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="865" customHeight="1" spans="1:1">
+      <c r="A865" s="13">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="866" customHeight="1" spans="1:1">
+      <c r="A866" s="13">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="867" customHeight="1" spans="1:1">
+      <c r="A867" s="13">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="868" customHeight="1" spans="1:1">
+      <c r="A868" s="13">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="869" customHeight="1" spans="1:1">
+      <c r="A869" s="13">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="870" customHeight="1" spans="1:1">
+      <c r="A870" s="13">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="871" customHeight="1" spans="1:1">
+      <c r="A871" s="13">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="872" customHeight="1" spans="1:1">
+      <c r="A872" s="13">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="873" customHeight="1" spans="1:1">
+      <c r="A873" s="13">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="874" customHeight="1" spans="1:1">
+      <c r="A874" s="13">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="875" customHeight="1" spans="1:1">
+      <c r="A875" s="13">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="876" customHeight="1" spans="1:1">
+      <c r="A876" s="13">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="877" customHeight="1" spans="1:1">
+      <c r="A877" s="13">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="878" customHeight="1" spans="1:1">
+      <c r="A878" s="13">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="879" customHeight="1" spans="1:1">
+      <c r="A879" s="13">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="880" customHeight="1" spans="1:1">
+      <c r="A880" s="13">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="881" customHeight="1" spans="1:1">
+      <c r="A881" s="13">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="882" customHeight="1" spans="1:1">
+      <c r="A882" s="13">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="883" customHeight="1" spans="1:1">
+      <c r="A883" s="13">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="884" customHeight="1" spans="1:1">
+      <c r="A884" s="13">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="885" customHeight="1" spans="1:1">
+      <c r="A885" s="13">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="886" customHeight="1" spans="1:1">
+      <c r="A886" s="13">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="887" customHeight="1" spans="1:1">
+      <c r="A887" s="13">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="888" customHeight="1" spans="1:1">
+      <c r="A888" s="13">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="889" customHeight="1" spans="1:1">
+      <c r="A889" s="13">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="890" customHeight="1" spans="1:1">
+      <c r="A890" s="13">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="891" customHeight="1" spans="1:1">
+      <c r="A891" s="13">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="892" customHeight="1" spans="1:1">
+      <c r="A892" s="13">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="893" customHeight="1" spans="1:1">
+      <c r="A893" s="13">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="894" customHeight="1" spans="1:1">
+      <c r="A894" s="13">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="895" customHeight="1" spans="1:1">
+      <c r="A895" s="13">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="896" customHeight="1" spans="1:1">
+      <c r="A896" s="13">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="897" customHeight="1" spans="1:1">
+      <c r="A897" s="13">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="898" customHeight="1" spans="1:1">
+      <c r="A898" s="13">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="899" customHeight="1" spans="1:1">
+      <c r="A899" s="13">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="900" customHeight="1" spans="1:1">
+      <c r="A900" s="13">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="901" customHeight="1" spans="1:1">
+      <c r="A901" s="13">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="902" customHeight="1" spans="1:1">
+      <c r="A902" s="13">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="903" customHeight="1" spans="1:1">
+      <c r="A903" s="13">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="904" customHeight="1" spans="1:1">
+      <c r="A904" s="13">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="905" customHeight="1" spans="1:1">
+      <c r="A905" s="13">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="906" customHeight="1" spans="1:1">
+      <c r="A906" s="13">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="907" customHeight="1" spans="1:1">
+      <c r="A907" s="13">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="908" customHeight="1" spans="1:1">
+      <c r="A908" s="13">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="909" customHeight="1" spans="1:1">
+      <c r="A909" s="13">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="910" customHeight="1" spans="1:1">
+      <c r="A910" s="13">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="911" customHeight="1" spans="1:1">
+      <c r="A911" s="13">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="912" customHeight="1" spans="1:1">
+      <c r="A912" s="13">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="913" customHeight="1" spans="1:1">
+      <c r="A913" s="13">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="914" customHeight="1" spans="1:1">
+      <c r="A914" s="13">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="915" customHeight="1" spans="1:1">
+      <c r="A915" s="13">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="916" customHeight="1" spans="1:1">
+      <c r="A916" s="13">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="917" customHeight="1" spans="1:1">
+      <c r="A917" s="13">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="918" customHeight="1" spans="1:1">
+      <c r="A918" s="13">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="919" customHeight="1" spans="1:1">
+      <c r="A919" s="13">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="920" customHeight="1" spans="1:1">
+      <c r="A920" s="13">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="921" customHeight="1" spans="1:1">
+      <c r="A921" s="13">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="922" customHeight="1" spans="1:1">
+      <c r="A922" s="13">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="923" customHeight="1" spans="1:1">
+      <c r="A923" s="13">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="924" customHeight="1" spans="1:1">
+      <c r="A924" s="13">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="925" customHeight="1" spans="1:1">
+      <c r="A925" s="13">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="926" customHeight="1" spans="1:1">
+      <c r="A926" s="13">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="927" customHeight="1" spans="1:1">
+      <c r="A927" s="13">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="928" customHeight="1" spans="1:1">
+      <c r="A928" s="13">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="929" customHeight="1" spans="1:1">
+      <c r="A929" s="13">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="930" customHeight="1" spans="1:1">
+      <c r="A930" s="13">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="931" customHeight="1" spans="1:1">
+      <c r="A931" s="13">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="932" customHeight="1" spans="1:1">
+      <c r="A932" s="13">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="933" customHeight="1" spans="1:1">
+      <c r="A933" s="13">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="934" customHeight="1" spans="1:1">
+      <c r="A934" s="13">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="935" customHeight="1" spans="1:1">
+      <c r="A935" s="13">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="936" customHeight="1" spans="1:1">
+      <c r="A936" s="13">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="937" customHeight="1" spans="1:1">
+      <c r="A937" s="13">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="938" customHeight="1" spans="1:1">
+      <c r="A938" s="13">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="939" customHeight="1" spans="1:1">
+      <c r="A939" s="13">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="940" customHeight="1" spans="1:1">
+      <c r="A940" s="13">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="941" customHeight="1" spans="1:1">
+      <c r="A941" s="13">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="942" customHeight="1" spans="1:1">
+      <c r="A942" s="13">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="943" customHeight="1" spans="1:1">
+      <c r="A943" s="13">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="944" customHeight="1" spans="1:1">
+      <c r="A944" s="13">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="945" customHeight="1" spans="1:1">
+      <c r="A945" s="13">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="946" customHeight="1" spans="1:1">
+      <c r="A946" s="13">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="947" customHeight="1" spans="1:1">
+      <c r="A947" s="13">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="948" customHeight="1" spans="1:1">
+      <c r="A948" s="13">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="949" customHeight="1" spans="1:1">
+      <c r="A949" s="13">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="950" customHeight="1" spans="1:1">
+      <c r="A950" s="13">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="951" customHeight="1" spans="1:1">
+      <c r="A951" s="13">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="952" customHeight="1" spans="1:1">
+      <c r="A952" s="13">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="953" customHeight="1" spans="1:1">
+      <c r="A953" s="13">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="954" customHeight="1" spans="1:1">
+      <c r="A954" s="13">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="955" customHeight="1" spans="1:1">
+      <c r="A955" s="13">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="956" customHeight="1" spans="1:1">
+      <c r="A956" s="13">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="957" customHeight="1" spans="1:1">
+      <c r="A957" s="13">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="958" customHeight="1" spans="1:1">
+      <c r="A958" s="13">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="959" customHeight="1" spans="1:1">
+      <c r="A959" s="13">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="960" customHeight="1" spans="1:1">
+      <c r="A960" s="13">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="961" customHeight="1" spans="1:1">
+      <c r="A961" s="13">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="962" customHeight="1" spans="1:1">
+      <c r="A962" s="13">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="963" customHeight="1" spans="1:1">
+      <c r="A963" s="13">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="964" customHeight="1" spans="1:1">
+      <c r="A964" s="13">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="965" customHeight="1" spans="1:1">
+      <c r="A965" s="13">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="966" customHeight="1" spans="1:1">
+      <c r="A966" s="13">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="967" customHeight="1" spans="1:1">
+      <c r="A967" s="13">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="968" customHeight="1" spans="1:1">
+      <c r="A968" s="13">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="969" customHeight="1" spans="1:1">
+      <c r="A969" s="13">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="970" customHeight="1" spans="1:1">
+      <c r="A970" s="13">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="971" customHeight="1" spans="1:1">
+      <c r="A971" s="13">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="972" customHeight="1" spans="1:1">
+      <c r="A972" s="13">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="973" customHeight="1" spans="1:1">
+      <c r="A973" s="13">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="974" customHeight="1" spans="1:1">
+      <c r="A974" s="13">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="975" customHeight="1" spans="1:1">
+      <c r="A975" s="13">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="976" customHeight="1" spans="1:1">
+      <c r="A976" s="13">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="977" customHeight="1" spans="1:1">
+      <c r="A977" s="13">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="978" customHeight="1" spans="1:1">
+      <c r="A978" s="13">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="979" customHeight="1" spans="1:1">
+      <c r="A979" s="13">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="980" customHeight="1" spans="1:1">
+      <c r="A980" s="13">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="981" customHeight="1" spans="1:1">
+      <c r="A981" s="13">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="982" customHeight="1" spans="1:1">
+      <c r="A982" s="13">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="983" customHeight="1" spans="1:1">
+      <c r="A983" s="13">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="984" customHeight="1" spans="1:1">
+      <c r="A984" s="13">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="985" customHeight="1" spans="1:1">
+      <c r="A985" s="13">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="986" customHeight="1" spans="1:1">
+      <c r="A986" s="13">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="987" customHeight="1" spans="1:1">
+      <c r="A987" s="13">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="988" customHeight="1" spans="1:1">
+      <c r="A988" s="13">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="989" customHeight="1" spans="1:1">
+      <c r="A989" s="13">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="990" customHeight="1" spans="1:1">
+      <c r="A990" s="13">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="991" customHeight="1" spans="1:1">
+      <c r="A991" s="13">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="992" customHeight="1" spans="1:1">
+      <c r="A992" s="13">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="993" customHeight="1" spans="1:1">
+      <c r="A993" s="13">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="994" customHeight="1" spans="1:1">
+      <c r="A994" s="13">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="995" customHeight="1" spans="1:1">
+      <c r="A995" s="13">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="996" customHeight="1" spans="1:1">
+      <c r="A996" s="13">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="997" customHeight="1" spans="1:1">
+      <c r="A997" s="13">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="998" customHeight="1" spans="1:1">
+      <c r="A998" s="13">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="999" customHeight="1" spans="1:1">
+      <c r="A999" s="13">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="1000" customHeight="1" spans="1:1">
+      <c r="A1000" s="13">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="1001" customHeight="1" spans="1:1">
+      <c r="A1001" s="13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="1002" customHeight="1" spans="1:1">
+      <c r="A1002" s="13">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="1003" customHeight="1" spans="1:1">
+      <c r="A1003" s="13">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="1004" customHeight="1" spans="1:1">
+      <c r="A1004" s="13">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="1005" customHeight="1" spans="1:1">
+      <c r="A1005" s="13">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="1006" customHeight="1" spans="1:1">
+      <c r="A1006" s="13">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="1007" customHeight="1" spans="1:1">
+      <c r="A1007" s="13">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="1008" customHeight="1" spans="1:1">
+      <c r="A1008" s="13">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="1009" customHeight="1" spans="1:1">
+      <c r="A1009" s="13">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="1010" customHeight="1" spans="1:1">
+      <c r="A1010" s="13">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="1011" customHeight="1" spans="1:1">
+      <c r="A1011" s="13">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="1012" customHeight="1" spans="1:1">
+      <c r="A1012" s="13">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="1013" customHeight="1" spans="1:1">
+      <c r="A1013" s="13">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="1014" customHeight="1" spans="1:1">
+      <c r="A1014" s="13">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="1015" customHeight="1" spans="1:1">
+      <c r="A1015" s="13">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="1016" customHeight="1" spans="1:1">
+      <c r="A1016" s="13">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="1017" customHeight="1" spans="1:1">
+      <c r="A1017" s="13">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="1018" customHeight="1" spans="1:1">
+      <c r="A1018" s="13">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="1019" customHeight="1" spans="1:1">
+      <c r="A1019" s="13">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="1020" customHeight="1" spans="1:1">
+      <c r="A1020" s="13">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="1021" customHeight="1" spans="1:1">
+      <c r="A1021" s="13">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="1022" customHeight="1" spans="1:1">
+      <c r="A1022" s="13">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="1023" customHeight="1" spans="1:1">
+      <c r="A1023" s="13">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="1024" customHeight="1" spans="1:1">
+      <c r="A1024" s="13">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="1025" customHeight="1" spans="1:1">
+      <c r="A1025" s="13">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="1026" customHeight="1" spans="1:1">
+      <c r="A1026" s="13">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="1027" customHeight="1" spans="1:1">
+      <c r="A1027" s="13">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="1028" customHeight="1" spans="1:1">
+      <c r="A1028" s="13">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="1029" customHeight="1" spans="1:1">
+      <c r="A1029" s="13">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="1030" customHeight="1" spans="1:1">
+      <c r="A1030" s="13">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="1031" customHeight="1" spans="1:1">
+      <c r="A1031" s="13">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="1032" customHeight="1" spans="1:1">
+      <c r="A1032" s="13">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="1033" customHeight="1" spans="1:1">
+      <c r="A1033" s="13">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="1034" customHeight="1" spans="1:1">
+      <c r="A1034" s="13">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="1035" customHeight="1" spans="1:1">
+      <c r="A1035" s="13">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="1036" customHeight="1" spans="1:1">
+      <c r="A1036" s="13">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="1037" customHeight="1" spans="1:1">
+      <c r="A1037" s="13">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="1038" customHeight="1" spans="1:1">
+      <c r="A1038" s="13">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1039" customHeight="1" spans="1:1">
+      <c r="A1039" s="13">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1040" customHeight="1" spans="1:1">
+      <c r="A1040" s="13">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="1041" customHeight="1" spans="1:1">
+      <c r="A1041" s="13">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="1042" customHeight="1" spans="1:1">
+      <c r="A1042" s="13">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="1043" customHeight="1" spans="1:1">
+      <c r="A1043" s="13">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="1044" customHeight="1" spans="1:1">
+      <c r="A1044" s="13">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="1045" customHeight="1" spans="1:1">
+      <c r="A1045" s="13">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="1046" customHeight="1" spans="1:1">
+      <c r="A1046" s="13">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="1047" customHeight="1" spans="1:1">
+      <c r="A1047" s="13">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="1048" customHeight="1" spans="1:1">
+      <c r="A1048" s="13">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="1049" customHeight="1" spans="1:1">
+      <c r="A1049" s="13">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="1050" customHeight="1" spans="1:1">
+      <c r="A1050" s="13">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="1051" customHeight="1" spans="1:1">
+      <c r="A1051" s="13">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="1052" customHeight="1" spans="1:1">
+      <c r="A1052" s="13">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="1053" customHeight="1" spans="1:1">
+      <c r="A1053" s="13">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="1054" customHeight="1" spans="1:1">
+      <c r="A1054" s="13">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="1055" customHeight="1" spans="1:1">
+      <c r="A1055" s="13">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="1056" customHeight="1" spans="1:1">
+      <c r="A1056" s="13">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="1057" customHeight="1" spans="1:1">
+      <c r="A1057" s="13">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="1058" customHeight="1" spans="1:1">
+      <c r="A1058" s="13">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="1059" customHeight="1" spans="1:1">
+      <c r="A1059" s="13">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="1060" customHeight="1" spans="1:1">
+      <c r="A1060" s="13">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="1061" customHeight="1" spans="1:1">
+      <c r="A1061" s="13">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="1062" customHeight="1" spans="1:1">
+      <c r="A1062" s="13">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="1063" customHeight="1" spans="1:1">
+      <c r="A1063" s="13">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="1064" customHeight="1" spans="1:1">
+      <c r="A1064" s="13">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="1065" customHeight="1" spans="1:1">
+      <c r="A1065" s="13">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="1066" customHeight="1" spans="1:1">
+      <c r="A1066" s="13">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="1067" customHeight="1" spans="1:1">
+      <c r="A1067" s="13">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="1068" customHeight="1" spans="1:1">
+      <c r="A1068" s="13">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1069" customHeight="1" spans="1:1">
+      <c r="A1069" s="13">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="1070" customHeight="1" spans="1:1">
+      <c r="A1070" s="13">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="1071" customHeight="1" spans="1:1">
+      <c r="A1071" s="13">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="1072" customHeight="1" spans="1:1">
+      <c r="A1072" s="13">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="1073" customHeight="1" spans="1:1">
+      <c r="A1073" s="13">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="1074" customHeight="1" spans="1:1">
+      <c r="A1074" s="13">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="1075" customHeight="1" spans="1:1">
+      <c r="A1075" s="13">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="1076" customHeight="1" spans="1:1">
+      <c r="A1076" s="13">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="1077" customHeight="1" spans="1:1">
+      <c r="A1077" s="13">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="1078" customHeight="1" spans="1:1">
+      <c r="A1078" s="13">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="1079" customHeight="1" spans="1:1">
+      <c r="A1079" s="13">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="1080" customHeight="1" spans="1:1">
+      <c r="A1080" s="13">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="1081" customHeight="1" spans="1:1">
+      <c r="A1081" s="13">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="1082" customHeight="1" spans="1:1">
+      <c r="A1082" s="13">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="1083" customHeight="1" spans="1:1">
+      <c r="A1083" s="13">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="1084" customHeight="1" spans="1:1">
+      <c r="A1084" s="13">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="1085" customHeight="1" spans="1:1">
+      <c r="A1085" s="13">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="1086" customHeight="1" spans="1:1">
+      <c r="A1086" s="13">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="1087" customHeight="1" spans="1:1">
+      <c r="A1087" s="13">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="1088" customHeight="1" spans="1:1">
+      <c r="A1088" s="13">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="1089" customHeight="1" spans="1:1">
+      <c r="A1089" s="13">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="1090" customHeight="1" spans="1:1">
+      <c r="A1090" s="13">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="1091" customHeight="1" spans="1:1">
+      <c r="A1091" s="13">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="1092" customHeight="1" spans="1:1">
+      <c r="A1092" s="13">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="1093" customHeight="1" spans="1:1">
+      <c r="A1093" s="13">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="1094" customHeight="1" spans="1:1">
+      <c r="A1094" s="13">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="1095" customHeight="1" spans="1:1">
+      <c r="A1095" s="13">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="1096" customHeight="1" spans="1:1">
+      <c r="A1096" s="13">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="1097" customHeight="1" spans="1:1">
+      <c r="A1097" s="13">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="1098" customHeight="1" spans="1:1">
+      <c r="A1098" s="13">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="1099" customHeight="1" spans="1:1">
+      <c r="A1099" s="13">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="1100" customHeight="1" spans="1:1">
+      <c r="A1100" s="13">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="1101" customHeight="1" spans="1:1">
+      <c r="A1101" s="13">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="1102" customHeight="1" spans="1:1">
+      <c r="A1102" s="13">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="1103" customHeight="1" spans="1:1">
+      <c r="A1103" s="13">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="1104" customHeight="1" spans="1:1">
+      <c r="A1104" s="13">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="1105" customHeight="1" spans="1:1">
+      <c r="A1105" s="13">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="1106" customHeight="1" spans="1:1">
+      <c r="A1106" s="13">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="1107" customHeight="1" spans="1:1">
+      <c r="A1107" s="13">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="1108" customHeight="1" spans="1:1">
+      <c r="A1108" s="13">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="1109" customHeight="1" spans="1:1">
+      <c r="A1109" s="13">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="1110" customHeight="1" spans="1:1">
+      <c r="A1110" s="13">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1111" customHeight="1" spans="1:1">
+      <c r="A1111" s="13">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="1112" customHeight="1" spans="1:1">
+      <c r="A1112" s="13">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="1113" customHeight="1" spans="1:1">
+      <c r="A1113" s="13">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="1114" customHeight="1" spans="1:1">
+      <c r="A1114" s="13">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="1115" customHeight="1" spans="1:1">
+      <c r="A1115" s="13">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="1116" customHeight="1" spans="1:1">
+      <c r="A1116" s="13">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="1117" customHeight="1" spans="1:1">
+      <c r="A1117" s="13">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="1118" customHeight="1" spans="1:1">
+      <c r="A1118" s="13">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="1119" customHeight="1" spans="1:1">
+      <c r="A1119" s="13">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="1120" customHeight="1" spans="1:1">
+      <c r="A1120" s="13">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="1121" customHeight="1" spans="1:1">
+      <c r="A1121" s="13">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="1122" customHeight="1" spans="1:1">
+      <c r="A1122" s="13">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="1123" customHeight="1" spans="1:1">
+      <c r="A1123" s="13">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="1124" customHeight="1" spans="1:1">
+      <c r="A1124" s="13">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="1125" customHeight="1" spans="1:1">
+      <c r="A1125" s="13">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="1126" customHeight="1" spans="1:1">
+      <c r="A1126" s="13">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="1127" customHeight="1" spans="1:1">
+      <c r="A1127" s="13">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1128" customHeight="1" spans="1:1">
+      <c r="A1128" s="13">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="1129" customHeight="1" spans="1:1">
+      <c r="A1129" s="13">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="1130" customHeight="1" spans="1:1">
+      <c r="A1130" s="13">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="1131" customHeight="1" spans="1:1">
+      <c r="A1131" s="13">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="1132" customHeight="1" spans="1:1">
+      <c r="A1132" s="13">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="1133" customHeight="1" spans="1:1">
+      <c r="A1133" s="13">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="1134" customHeight="1" spans="1:1">
+      <c r="A1134" s="13">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="1135" customHeight="1" spans="1:1">
+      <c r="A1135" s="13">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="1136" customHeight="1" spans="1:1">
+      <c r="A1136" s="13">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="1137" customHeight="1" spans="1:1">
+      <c r="A1137" s="13">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="1138" customHeight="1" spans="1:1">
+      <c r="A1138" s="13">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="1139" customHeight="1" spans="1:1">
+      <c r="A1139" s="13">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="1140" customHeight="1" spans="1:1">
+      <c r="A1140" s="13">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="1141" customHeight="1" spans="1:1">
+      <c r="A1141" s="13">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="1142" customHeight="1" spans="1:1">
+      <c r="A1142" s="13">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="1143" customHeight="1" spans="1:1">
+      <c r="A1143" s="13">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="1144" customHeight="1" spans="1:1">
+      <c r="A1144" s="13">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="1145" customHeight="1" spans="1:1">
+      <c r="A1145" s="13">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="1146" customHeight="1" spans="1:1">
+      <c r="A1146" s="13">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="1147" customHeight="1" spans="1:1">
+      <c r="A1147" s="13">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="1148" customHeight="1" spans="1:1">
+      <c r="A1148" s="13">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="1149" customHeight="1" spans="1:1">
+      <c r="A1149" s="13">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="1150" customHeight="1" spans="1:1">
+      <c r="A1150" s="13">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="1151" customHeight="1" spans="1:1">
+      <c r="A1151" s="13">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="1152" customHeight="1" spans="1:1">
+      <c r="A1152" s="13">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="1153" customHeight="1" spans="1:1">
+      <c r="A1153" s="13">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="1154" customHeight="1" spans="1:1">
+      <c r="A1154" s="13">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="1155" customHeight="1" spans="1:1">
+      <c r="A1155" s="13">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="1156" customHeight="1" spans="1:1">
+      <c r="A1156" s="13">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="1157" customHeight="1" spans="1:1">
+      <c r="A1157" s="13">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="1158" customHeight="1" spans="1:1">
+      <c r="A1158" s="13">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="1159" customHeight="1" spans="1:1">
+      <c r="A1159" s="13">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="1160" customHeight="1" spans="1:1">
+      <c r="A1160" s="13">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="1161" customHeight="1" spans="1:1">
+      <c r="A1161" s="13">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="1162" customHeight="1" spans="1:1">
+      <c r="A1162" s="13">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="1163" customHeight="1" spans="1:1">
+      <c r="A1163" s="13">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="1164" customHeight="1" spans="1:1">
+      <c r="A1164" s="13">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="1165" customHeight="1" spans="1:1">
+      <c r="A1165" s="13">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="1166" customHeight="1" spans="1:1">
+      <c r="A1166" s="13">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="1167" customHeight="1" spans="1:1">
+      <c r="A1167" s="13">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="1168" customHeight="1" spans="1:1">
+      <c r="A1168" s="13">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="1169" customHeight="1" spans="1:1">
+      <c r="A1169" s="13">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="1170" customHeight="1" spans="1:1">
+      <c r="A1170" s="13">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="1171" customHeight="1" spans="1:1">
+      <c r="A1171" s="13">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1172" customHeight="1" spans="1:1">
+      <c r="A1172" s="13">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="1173" customHeight="1" spans="1:1">
+      <c r="A1173" s="13">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="1174" customHeight="1" spans="1:1">
+      <c r="A1174" s="13">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="1175" customHeight="1" spans="1:1">
+      <c r="A1175" s="13">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="1176" customHeight="1" spans="1:1">
+      <c r="A1176" s="13">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="1177" customHeight="1" spans="1:1">
+      <c r="A1177" s="13">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="1178" customHeight="1" spans="1:1">
+      <c r="A1178" s="13">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="1179" customHeight="1" spans="1:1">
+      <c r="A1179" s="13">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="1180" customHeight="1" spans="1:1">
+      <c r="A1180" s="13">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="1181" customHeight="1" spans="1:1">
+      <c r="A1181" s="13">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="1182" customHeight="1" spans="1:1">
+      <c r="A1182" s="13">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="1183" customHeight="1" spans="1:1">
+      <c r="A1183" s="13">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="1184" customHeight="1" spans="1:1">
+      <c r="A1184" s="13">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="1185" customHeight="1" spans="1:1">
+      <c r="A1185" s="13">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="1186" customHeight="1" spans="1:1">
+      <c r="A1186" s="13">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="1187" customHeight="1" spans="1:1">
+      <c r="A1187" s="13">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="1188" customHeight="1" spans="1:1">
+      <c r="A1188" s="13">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="1189" customHeight="1" spans="1:1">
+      <c r="A1189" s="13">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="1190" customHeight="1" spans="1:1">
+      <c r="A1190" s="13">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="1191" customHeight="1" spans="1:1">
+      <c r="A1191" s="13">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="1192" customHeight="1" spans="1:1">
+      <c r="A1192" s="13">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="1193" customHeight="1" spans="1:1">
+      <c r="A1193" s="13">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="1194" customHeight="1" spans="1:1">
+      <c r="A1194" s="13">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="1195" customHeight="1" spans="1:1">
+      <c r="A1195" s="13">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="1196" customHeight="1" spans="1:1">
+      <c r="A1196" s="13">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="1197" customHeight="1" spans="1:1">
+      <c r="A1197" s="13">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="1198" customHeight="1" spans="1:1">
+      <c r="A1198" s="13">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="1199" customHeight="1" spans="1:1">
+      <c r="A1199" s="13">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="1200" customHeight="1" spans="1:1">
+      <c r="A1200" s="13">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="1201" customHeight="1" spans="1:1">
+      <c r="A1201" s="13">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="1202" customHeight="1" spans="1:1">
+      <c r="A1202" s="13">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="1203" customHeight="1" spans="1:1">
+      <c r="A1203" s="13">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="1204" customHeight="1" spans="1:1">
+      <c r="A1204" s="13">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="1205" customHeight="1" spans="1:1">
+      <c r="A1205" s="13">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="1206" customHeight="1" spans="1:1">
+      <c r="A1206" s="13">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="1207" customHeight="1" spans="1:1">
+      <c r="A1207" s="13">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="1208" customHeight="1" spans="1:1">
+      <c r="A1208" s="13">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="1209" customHeight="1" spans="1:1">
+      <c r="A1209" s="13">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="1210" customHeight="1" spans="1:1">
+      <c r="A1210" s="13">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="1211" customHeight="1" spans="1:1">
+      <c r="A1211" s="13">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1212" customHeight="1" spans="1:1">
+      <c r="A1212" s="13">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="1213" customHeight="1" spans="1:1">
+      <c r="A1213" s="13">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="1214" customHeight="1" spans="1:1">
+      <c r="A1214" s="13">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="1215" customHeight="1" spans="1:1">
+      <c r="A1215" s="13">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="1216" customHeight="1" spans="1:1">
+      <c r="A1216" s="13">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="1217" customHeight="1" spans="1:1">
+      <c r="A1217" s="13">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="1218" customHeight="1" spans="1:1">
+      <c r="A1218" s="13">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="1219" customHeight="1" spans="1:1">
+      <c r="A1219" s="13">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="1220" customHeight="1" spans="1:1">
+      <c r="A1220" s="13">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="1221" customHeight="1" spans="1:1">
+      <c r="A1221" s="13">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="1222" customHeight="1" spans="1:1">
+      <c r="A1222" s="13">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="1223" customHeight="1" spans="1:1">
+      <c r="A1223" s="13">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="1224" customHeight="1" spans="1:1">
+      <c r="A1224" s="13">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="1225" customHeight="1" spans="1:1">
+      <c r="A1225" s="13">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="1226" customHeight="1" spans="1:1">
+      <c r="A1226" s="13">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="1227" customHeight="1" spans="1:1">
+      <c r="A1227" s="13">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="1228" customHeight="1" spans="1:1">
+      <c r="A1228" s="13">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="1229" customHeight="1" spans="1:1">
+      <c r="A1229" s="13">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="1230" customHeight="1" spans="1:1">
+      <c r="A1230" s="13">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="1231" customHeight="1" spans="1:1">
+      <c r="A1231" s="13">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="1232" customHeight="1" spans="1:1">
+      <c r="A1232" s="13">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="1233" customHeight="1" spans="1:1">
+      <c r="A1233" s="13">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="1234" customHeight="1" spans="1:1">
+      <c r="A1234" s="13">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="1235" customHeight="1" spans="1:1">
+      <c r="A1235" s="13">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="1236" customHeight="1" spans="1:1">
+      <c r="A1236" s="13">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="1237" customHeight="1" spans="1:1">
+      <c r="A1237" s="13">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="1238" customHeight="1" spans="1:1">
+      <c r="A1238" s="13">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="1239" customHeight="1" spans="1:1">
+      <c r="A1239" s="13">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="1240" customHeight="1" spans="1:1">
+      <c r="A1240" s="13">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="1241" customHeight="1" spans="1:1">
+      <c r="A1241" s="13">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="1242" customHeight="1" spans="1:1">
+      <c r="A1242" s="13">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="1243" customHeight="1" spans="1:1">
+      <c r="A1243" s="13">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="1244" customHeight="1" spans="1:1">
+      <c r="A1244" s="13">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1245" customHeight="1" spans="1:1">
+      <c r="A1245" s="13">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1246" customHeight="1" spans="1:1">
+      <c r="A1246" s="13">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="1247" customHeight="1" spans="1:1">
+      <c r="A1247" s="13">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="1248" customHeight="1" spans="1:1">
+      <c r="A1248" s="13">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="1249" customHeight="1" spans="1:1">
+      <c r="A1249" s="13">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="1250" customHeight="1" spans="1:1">
+      <c r="A1250" s="13">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="1251" customHeight="1" spans="1:1">
+      <c r="A1251" s="13">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="1252" customHeight="1" spans="1:1">
+      <c r="A1252" s="13">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="1253" customHeight="1" spans="1:1">
+      <c r="A1253" s="13">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="1254" customHeight="1" spans="1:1">
+      <c r="A1254" s="13">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="1255" customHeight="1" spans="1:1">
+      <c r="A1255" s="13">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="1256" customHeight="1" spans="1:1">
+      <c r="A1256" s="13">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="1257" customHeight="1" spans="1:1">
+      <c r="A1257" s="13">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="1258" customHeight="1" spans="1:1">
+      <c r="A1258" s="13">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="1259" customHeight="1" spans="1:1">
+      <c r="A1259" s="13">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="1260" customHeight="1" spans="1:1">
+      <c r="A1260" s="13">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="1261" customHeight="1" spans="1:1">
+      <c r="A1261" s="13">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="1262" customHeight="1" spans="1:1">
+      <c r="A1262" s="13">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="1263" customHeight="1" spans="1:1">
+      <c r="A1263" s="13">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="1264" customHeight="1" spans="1:1">
+      <c r="A1264" s="13">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="1265" customHeight="1" spans="1:1">
+      <c r="A1265" s="13">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="1266" customHeight="1" spans="1:1">
+      <c r="A1266" s="13">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="1267" customHeight="1" spans="1:1">
+      <c r="A1267" s="13">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="1268" customHeight="1" spans="1:1">
+      <c r="A1268" s="13">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="1269" customHeight="1" spans="1:1">
+      <c r="A1269" s="13">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="1270" customHeight="1" spans="1:1">
+      <c r="A1270" s="13">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="1271" customHeight="1" spans="1:1">
+      <c r="A1271" s="13">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="1272" customHeight="1" spans="1:1">
+      <c r="A1272" s="13">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="1273" customHeight="1" spans="1:1">
+      <c r="A1273" s="13">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="1274" customHeight="1" spans="1:1">
+      <c r="A1274" s="13">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="1275" customHeight="1" spans="1:1">
+      <c r="A1275" s="13">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="1276" customHeight="1" spans="1:1">
+      <c r="A1276" s="13">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="1277" customHeight="1" spans="1:1">
+      <c r="A1277" s="13">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="1278" customHeight="1" spans="1:1">
+      <c r="A1278" s="13">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="1279" customHeight="1" spans="1:1">
+      <c r="A1279" s="13">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="1280" customHeight="1" spans="1:1">
+      <c r="A1280" s="13">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="1281" customHeight="1" spans="1:1">
+      <c r="A1281" s="13">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="1282" customHeight="1" spans="1:1">
+      <c r="A1282" s="13">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="1283" customHeight="1" spans="1:1">
+      <c r="A1283" s="13">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="1284" customHeight="1" spans="1:1">
+      <c r="A1284" s="13">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="1285" customHeight="1" spans="1:1">
+      <c r="A1285" s="13">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="1286" customHeight="1" spans="1:1">
+      <c r="A1286" s="13">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="1287" customHeight="1" spans="1:1">
+      <c r="A1287" s="13">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="1288" customHeight="1" spans="1:1">
+      <c r="A1288" s="13">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="1289" customHeight="1" spans="1:1">
+      <c r="A1289" s="13">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="1290" customHeight="1" spans="1:1">
+      <c r="A1290" s="13">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="1291" customHeight="1" spans="1:1">
+      <c r="A1291" s="13">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="1292" customHeight="1" spans="1:1">
+      <c r="A1292" s="13">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="1293" customHeight="1" spans="1:1">
+      <c r="A1293" s="13">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="1294" customHeight="1" spans="1:1">
+      <c r="A1294" s="13">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="1295" customHeight="1" spans="1:1">
+      <c r="A1295" s="13">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="1296" customHeight="1" spans="1:1">
+      <c r="A1296" s="13">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="1297" customHeight="1" spans="1:1">
+      <c r="A1297" s="13">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="1298" customHeight="1" spans="1:1">
+      <c r="A1298" s="13">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="1299" customHeight="1" spans="1:1">
+      <c r="A1299" s="13">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="1300" customHeight="1" spans="1:1">
+      <c r="A1300" s="13">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="1301" customHeight="1" spans="1:1">
+      <c r="A1301" s="13">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="1302" customHeight="1" spans="1:1">
+      <c r="A1302" s="13">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="1303" customHeight="1" spans="1:1">
+      <c r="A1303" s="13">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="1304" customHeight="1" spans="1:1">
+      <c r="A1304" s="13">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="1305" customHeight="1" spans="1:1">
+      <c r="A1305" s="13">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="1306" customHeight="1" spans="1:1">
+      <c r="A1306" s="13">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="1307" customHeight="1" spans="1:1">
+      <c r="A1307" s="13">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="1308" customHeight="1" spans="1:1">
+      <c r="A1308" s="13">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="1309" customHeight="1" spans="1:1">
+      <c r="A1309" s="13">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="1310" customHeight="1" spans="1:1">
+      <c r="A1310" s="13">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="1311" customHeight="1" spans="1:1">
+      <c r="A1311" s="13">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="1312" customHeight="1" spans="1:1">
+      <c r="A1312" s="13">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="1313" customHeight="1" spans="1:1">
+      <c r="A1313" s="13">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="1314" customHeight="1" spans="1:1">
+      <c r="A1314" s="13">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="1315" customHeight="1" spans="1:1">
+      <c r="A1315" s="13">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="1316" customHeight="1" spans="1:1">
+      <c r="A1316" s="13">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="1317" customHeight="1" spans="1:1">
+      <c r="A1317" s="13">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="1318" customHeight="1" spans="1:1">
+      <c r="A1318" s="13">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="1319" customHeight="1" spans="1:1">
+      <c r="A1319" s="13">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="1320" customHeight="1" spans="1:1">
+      <c r="A1320" s="13">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="1321" customHeight="1" spans="1:1">
+      <c r="A1321" s="13">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="1322" customHeight="1" spans="1:1">
+      <c r="A1322" s="13">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="1323" customHeight="1" spans="1:1">
+      <c r="A1323" s="13">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="1324" customHeight="1" spans="1:1">
+      <c r="A1324" s="13">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="1325" customHeight="1" spans="1:1">
+      <c r="A1325" s="13">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="1326" customHeight="1" spans="1:1">
+      <c r="A1326" s="13">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="1327" customHeight="1" spans="1:1">
+      <c r="A1327" s="13">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="1328" customHeight="1" spans="1:1">
+      <c r="A1328" s="13">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="1329" customHeight="1" spans="1:1">
+      <c r="A1329" s="13">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="1330" customHeight="1" spans="1:1">
+      <c r="A1330" s="13">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="1331" customHeight="1" spans="1:1">
+      <c r="A1331" s="13">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="1332" customHeight="1" spans="1:1">
+      <c r="A1332" s="13">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="1333" customHeight="1" spans="1:1">
+      <c r="A1333" s="13">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="1334" customHeight="1" spans="1:1">
+      <c r="A1334" s="13">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="1335" customHeight="1" spans="1:1">
+      <c r="A1335" s="13">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="1336" customHeight="1" spans="1:1">
+      <c r="A1336" s="13">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="1337" customHeight="1" spans="1:1">
+      <c r="A1337" s="13">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="1338" customHeight="1" spans="1:1">
+      <c r="A1338" s="13">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="1339" customHeight="1" spans="1:1">
+      <c r="A1339" s="13">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="1340" customHeight="1" spans="1:1">
+      <c r="A1340" s="13">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="1341" customHeight="1" spans="1:1">
+      <c r="A1341" s="13">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="1342" customHeight="1" spans="1:1">
+      <c r="A1342" s="13">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="1343" customHeight="1" spans="1:1">
+      <c r="A1343" s="13">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="1344" customHeight="1" spans="1:1">
+      <c r="A1344" s="13">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="1345" customHeight="1" spans="1:1">
+      <c r="A1345" s="13">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="1346" customHeight="1" spans="1:1">
+      <c r="A1346" s="13">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="1347" customHeight="1" spans="1:1">
+      <c r="A1347" s="13">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="1348" customHeight="1" spans="1:1">
+      <c r="A1348" s="13">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="1349" customHeight="1" spans="1:1">
+      <c r="A1349" s="13">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="1350" customHeight="1" spans="1:1">
+      <c r="A1350" s="13">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="1351" customHeight="1" spans="1:1">
+      <c r="A1351" s="13">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="1352" customHeight="1" spans="1:1">
+      <c r="A1352" s="13">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="1353" customHeight="1" spans="1:1">
+      <c r="A1353" s="13">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="1354" customHeight="1" spans="1:1">
+      <c r="A1354" s="13">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="1355" customHeight="1" spans="1:1">
+      <c r="A1355" s="13">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="1356" customHeight="1" spans="1:1">
+      <c r="A1356" s="13">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="1357" customHeight="1" spans="1:1">
+      <c r="A1357" s="13">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="1358" customHeight="1" spans="1:1">
+      <c r="A1358" s="13">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="1359" customHeight="1" spans="1:1">
+      <c r="A1359" s="13">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="1360" customHeight="1" spans="1:1">
+      <c r="A1360" s="13">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="1361" customHeight="1" spans="1:1">
+      <c r="A1361" s="13">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="1362" customHeight="1" spans="1:1">
+      <c r="A1362" s="13">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="1363" customHeight="1" spans="1:1">
+      <c r="A1363" s="13">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="1364" customHeight="1" spans="1:1">
+      <c r="A1364" s="13">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="1365" customHeight="1" spans="1:1">
+      <c r="A1365" s="13">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="1366" customHeight="1" spans="1:1">
+      <c r="A1366" s="13">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="1367" customHeight="1" spans="1:1">
+      <c r="A1367" s="13">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="1368" customHeight="1" spans="1:1">
+      <c r="A1368" s="13">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="1369" customHeight="1" spans="1:1">
+      <c r="A1369" s="13">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="1370" customHeight="1" spans="1:1">
+      <c r="A1370" s="13">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="1371" customHeight="1" spans="1:1">
+      <c r="A1371" s="13">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="1372" customHeight="1" spans="1:1">
+      <c r="A1372" s="13">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="1373" customHeight="1" spans="1:1">
+      <c r="A1373" s="13">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="1374" customHeight="1" spans="1:1">
+      <c r="A1374" s="13">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1375" customHeight="1" spans="1:1">
+      <c r="A1375" s="13">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="1376" customHeight="1" spans="1:1">
+      <c r="A1376" s="13">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="1377" customHeight="1" spans="1:1">
+      <c r="A1377" s="13">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="1378" customHeight="1" spans="1:1">
+      <c r="A1378" s="13">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="1379" customHeight="1" spans="1:1">
+      <c r="A1379" s="13">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="1380" customHeight="1" spans="1:1">
+      <c r="A1380" s="13">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="1381" customHeight="1" spans="1:1">
+      <c r="A1381" s="13">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="1382" customHeight="1" spans="1:1">
+      <c r="A1382" s="13">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="1383" customHeight="1" spans="1:1">
+      <c r="A1383" s="13">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="1384" customHeight="1" spans="1:1">
+      <c r="A1384" s="13">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="1385" customHeight="1" spans="1:1">
+      <c r="A1385" s="13">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="1386" customHeight="1" spans="1:1">
+      <c r="A1386" s="13">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="1387" customHeight="1" spans="1:1">
+      <c r="A1387" s="13">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="1388" customHeight="1" spans="1:1">
+      <c r="A1388" s="13">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="1389" customHeight="1" spans="1:1">
+      <c r="A1389" s="13">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="1390" customHeight="1" spans="1:1">
+      <c r="A1390" s="13">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="1391" customHeight="1" spans="1:1">
+      <c r="A1391" s="13">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="1392" customHeight="1" spans="1:1">
+      <c r="A1392" s="13">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="1393" customHeight="1" spans="1:1">
+      <c r="A1393" s="13">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="1394" customHeight="1" spans="1:1">
+      <c r="A1394" s="13">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="1395" customHeight="1" spans="1:1">
+      <c r="A1395" s="13">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="1396" customHeight="1" spans="1:1">
+      <c r="A1396" s="13">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="1397" customHeight="1" spans="1:1">
+      <c r="A1397" s="13">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="1398" customHeight="1" spans="1:1">
+      <c r="A1398" s="13">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="1399" customHeight="1" spans="1:1">
+      <c r="A1399" s="13">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="1400" customHeight="1" spans="1:1">
+      <c r="A1400" s="13">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="1401" customHeight="1" spans="1:1">
+      <c r="A1401" s="13">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="1402" customHeight="1" spans="1:1">
+      <c r="A1402" s="13">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="1403" customHeight="1" spans="1:1">
+      <c r="A1403" s="13">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="1404" customHeight="1" spans="1:1">
+      <c r="A1404" s="13">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="1405" customHeight="1" spans="1:1">
+      <c r="A1405" s="13">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="1406" customHeight="1" spans="1:1">
+      <c r="A1406" s="13">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="1407" customHeight="1" spans="1:1">
+      <c r="A1407" s="13">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="1408" customHeight="1" spans="1:1">
+      <c r="A1408" s="13">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="1409" customHeight="1" spans="1:1">
+      <c r="A1409" s="13">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="1410" customHeight="1" spans="1:1">
+      <c r="A1410" s="13">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="1411" customHeight="1" spans="1:1">
+      <c r="A1411" s="13">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="1412" customHeight="1" spans="1:1">
+      <c r="A1412" s="13">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="1413" customHeight="1" spans="1:1">
+      <c r="A1413" s="13">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="1414" customHeight="1" spans="1:1">
+      <c r="A1414" s="13">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="1415" customHeight="1" spans="1:1">
+      <c r="A1415" s="13">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="1416" customHeight="1" spans="1:1">
+      <c r="A1416" s="13">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="1417" customHeight="1" spans="1:1">
+      <c r="A1417" s="13">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="1418" customHeight="1" spans="1:1">
+      <c r="A1418" s="13">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="1419" customHeight="1" spans="1:1">
+      <c r="A1419" s="13">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="1420" customHeight="1" spans="1:1">
+      <c r="A1420" s="13">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="1421" customHeight="1" spans="1:1">
+      <c r="A1421" s="13">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="1422" customHeight="1" spans="1:1">
+      <c r="A1422" s="13">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="1423" customHeight="1" spans="1:1">
+      <c r="A1423" s="13">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="1424" customHeight="1" spans="1:1">
+      <c r="A1424" s="13">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="1425" customHeight="1" spans="1:1">
+      <c r="A1425" s="13">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="1426" customHeight="1" spans="1:1">
+      <c r="A1426" s="13">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="1427" customHeight="1" spans="1:1">
+      <c r="A1427" s="13">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="1428" customHeight="1" spans="1:1">
+      <c r="A1428" s="13">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="1429" customHeight="1" spans="1:1">
+      <c r="A1429" s="13">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="1430" customHeight="1" spans="1:1">
+      <c r="A1430" s="13">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="1431" customHeight="1" spans="1:1">
+      <c r="A1431" s="13">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="1432" customHeight="1" spans="1:1">
+      <c r="A1432" s="13">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="1433" customHeight="1" spans="1:1">
+      <c r="A1433" s="13">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="1434" customHeight="1" spans="1:1">
+      <c r="A1434" s="13">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="1435" customHeight="1" spans="1:1">
+      <c r="A1435" s="13">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="1436" customHeight="1" spans="1:1">
+      <c r="A1436" s="13">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="1437" customHeight="1" spans="1:1">
+      <c r="A1437" s="13">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="1438" customHeight="1" spans="1:1">
+      <c r="A1438" s="13">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="1439" customHeight="1" spans="1:1">
+      <c r="A1439" s="13">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="1440" customHeight="1" spans="1:1">
+      <c r="A1440" s="13">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="1441" customHeight="1" spans="1:1">
+      <c r="A1441" s="13">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="1442" customHeight="1" spans="1:1">
+      <c r="A1442" s="13">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="1443" customHeight="1" spans="1:1">
+      <c r="A1443" s="13">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="1444" customHeight="1" spans="1:1">
+      <c r="A1444" s="13">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="1445" customHeight="1" spans="1:1">
+      <c r="A1445" s="13">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="1446" customHeight="1" spans="1:1">
+      <c r="A1446" s="13">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="1447" customHeight="1" spans="1:1">
+      <c r="A1447" s="13">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="1448" customHeight="1" spans="1:1">
+      <c r="A1448" s="13">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="1449" customHeight="1" spans="1:1">
+      <c r="A1449" s="13">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="1450" customHeight="1" spans="1:1">
+      <c r="A1450" s="13">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="1451" customHeight="1" spans="1:1">
+      <c r="A1451" s="13">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="1452" customHeight="1" spans="1:1">
+      <c r="A1452" s="13">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="1453" customHeight="1" spans="1:1">
+      <c r="A1453" s="13">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="1454" customHeight="1" spans="1:1">
+      <c r="A1454" s="13">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="1455" customHeight="1" spans="1:1">
+      <c r="A1455" s="13">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="1456" customHeight="1" spans="1:1">
+      <c r="A1456" s="13">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="1457" customHeight="1" spans="1:1">
+      <c r="A1457" s="13">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="1458" customHeight="1" spans="1:1">
+      <c r="A1458" s="13">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="1459" customHeight="1" spans="1:1">
+      <c r="A1459" s="13">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="1460" customHeight="1" spans="1:1">
+      <c r="A1460" s="13">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="1461" customHeight="1" spans="1:1">
+      <c r="A1461" s="13">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="1462" customHeight="1" spans="1:1">
+      <c r="A1462" s="13">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="1463" customHeight="1" spans="1:1">
+      <c r="A1463" s="13">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="1464" customHeight="1" spans="1:1">
+      <c r="A1464" s="13">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="1465" customHeight="1" spans="1:1">
+      <c r="A1465" s="13">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="1466" customHeight="1" spans="1:1">
+      <c r="A1466" s="13">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="1467" customHeight="1" spans="1:1">
+      <c r="A1467" s="13">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="1468" customHeight="1" spans="1:1">
+      <c r="A1468" s="13">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="1469" customHeight="1" spans="1:1">
+      <c r="A1469" s="13">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="1470" customHeight="1" spans="1:1">
+      <c r="A1470" s="13">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="1471" customHeight="1" spans="1:1">
+      <c r="A1471" s="13">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="1472" customHeight="1" spans="1:1">
+      <c r="A1472" s="13">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="1473" customHeight="1" spans="1:1">
+      <c r="A1473" s="13">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="1474" customHeight="1" spans="1:1">
+      <c r="A1474" s="13">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1475" customHeight="1" spans="1:1">
+      <c r="A1475" s="13">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="1476" customHeight="1" spans="1:1">
+      <c r="A1476" s="13">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="1477" customHeight="1" spans="1:1">
+      <c r="A1477" s="13">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="1478" customHeight="1" spans="1:1">
+      <c r="A1478" s="13">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="1479" customHeight="1" spans="1:1">
+      <c r="A1479" s="13">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="1480" customHeight="1" spans="1:1">
+      <c r="A1480" s="13">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="1481" customHeight="1" spans="1:1">
+      <c r="A1481" s="13">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="1482" customHeight="1" spans="1:1">
+      <c r="A1482" s="13">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="1483" customHeight="1" spans="1:1">
+      <c r="A1483" s="13">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="1484" customHeight="1" spans="1:1">
+      <c r="A1484" s="13">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="1485" customHeight="1" spans="1:1">
+      <c r="A1485" s="13">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="1486" customHeight="1" spans="1:1">
+      <c r="A1486" s="13">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="1487" customHeight="1" spans="1:1">
+      <c r="A1487" s="13">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="1488" customHeight="1" spans="1:1">
+      <c r="A1488" s="13">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="1489" customHeight="1" spans="1:1">
+      <c r="A1489" s="13">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="1490" customHeight="1" spans="1:1">
+      <c r="A1490" s="13">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="1491" customHeight="1" spans="1:1">
+      <c r="A1491" s="13">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="1492" customHeight="1" spans="1:1">
+      <c r="A1492" s="13">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="1493" customHeight="1" spans="1:1">
+      <c r="A1493" s="13">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="1494" customHeight="1" spans="1:1">
+      <c r="A1494" s="13">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="1495" customHeight="1" spans="1:1">
+      <c r="A1495" s="13">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="1496" customHeight="1" spans="1:1">
+      <c r="A1496" s="13">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="1497" customHeight="1" spans="1:1">
+      <c r="A1497" s="13">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="1498" customHeight="1" spans="1:1">
+      <c r="A1498" s="13">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="1499" customHeight="1" spans="1:1">
+      <c r="A1499" s="13">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="1500" customHeight="1" spans="1:1">
+      <c r="A1500" s="13">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="1501" customHeight="1" spans="1:1">
+      <c r="A1501" s="13">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="1502" customHeight="1" spans="1:1">
+      <c r="A1502" s="13">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="1503" customHeight="1" spans="1:1">
+      <c r="A1503" s="13">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="1504" customHeight="1" spans="1:1">
+      <c r="A1504" s="13">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="1505" customHeight="1" spans="1:1">
+      <c r="A1505" s="13">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="1506" customHeight="1" spans="1:1">
+      <c r="A1506" s="13">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="1507" customHeight="1" spans="1:1">
+      <c r="A1507" s="13">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="1508" customHeight="1" spans="1:1">
+      <c r="A1508" s="13">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="1509" customHeight="1" spans="1:1">
+      <c r="A1509" s="13">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="1510" customHeight="1" spans="1:1">
+      <c r="A1510" s="13">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="1511" customHeight="1" spans="1:1">
+      <c r="A1511" s="13">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="1512" customHeight="1" spans="1:1">
+      <c r="A1512" s="13">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="1513" customHeight="1" spans="1:1">
+      <c r="A1513" s="13">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="1514" customHeight="1" spans="1:1">
+      <c r="A1514" s="13">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="1515" customHeight="1" spans="1:1">
+      <c r="A1515" s="13">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="1516" customHeight="1" spans="1:1">
+      <c r="A1516" s="13">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="1517" customHeight="1" spans="1:1">
+      <c r="A1517" s="13">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="1518" customHeight="1" spans="1:1">
+      <c r="A1518" s="13">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="1519" customHeight="1" spans="1:1">
+      <c r="A1519" s="13">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="1520" customHeight="1" spans="1:1">
+      <c r="A1520" s="13">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="1521" customHeight="1" spans="1:1">
+      <c r="A1521" s="13">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="1522" customHeight="1" spans="1:1">
+      <c r="A1522" s="13">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="1523" customHeight="1" spans="1:1">
+      <c r="A1523" s="13">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="1524" customHeight="1" spans="1:1">
+      <c r="A1524" s="13">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="1525" customHeight="1" spans="1:1">
+      <c r="A1525" s="13">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="1526" customHeight="1" spans="1:1">
+      <c r="A1526" s="13">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="1527" customHeight="1" spans="1:1">
+      <c r="A1527" s="13">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="1528" customHeight="1" spans="1:1">
+      <c r="A1528" s="13">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="1529" customHeight="1" spans="1:1">
+      <c r="A1529" s="13">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="1530" customHeight="1" spans="1:1">
+      <c r="A1530" s="13">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="1531" customHeight="1" spans="1:1">
+      <c r="A1531" s="13">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="1532" customHeight="1" spans="1:1">
+      <c r="A1532" s="13">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="1533" customHeight="1" spans="1:1">
+      <c r="A1533" s="13">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="1534" customHeight="1" spans="1:1">
+      <c r="A1534" s="13">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="1535" customHeight="1" spans="1:1">
+      <c r="A1535" s="13">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="1536" customHeight="1" spans="1:1">
+      <c r="A1536" s="13">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="1537" customHeight="1" spans="1:1">
+      <c r="A1537" s="13">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="1538" customHeight="1" spans="1:1">
+      <c r="A1538" s="13">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="1539" customHeight="1" spans="1:1">
+      <c r="A1539" s="13">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="1540" customHeight="1" spans="1:1">
+      <c r="A1540" s="13">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="1541" customHeight="1" spans="1:1">
+      <c r="A1541" s="13">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="1542" customHeight="1" spans="1:1">
+      <c r="A1542" s="13">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="1543" customHeight="1" spans="1:1">
+      <c r="A1543" s="13">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="1544" customHeight="1" spans="1:1">
+      <c r="A1544" s="13">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="1545" customHeight="1" spans="1:1">
+      <c r="A1545" s="13">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="1546" customHeight="1" spans="1:1">
+      <c r="A1546" s="13">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="1547" customHeight="1" spans="1:1">
+      <c r="A1547" s="13">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="1548" customHeight="1" spans="1:1">
+      <c r="A1548" s="13">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="1549" customHeight="1" spans="1:1">
+      <c r="A1549" s="13">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="1550" customHeight="1" spans="1:1">
+      <c r="A1550" s="13">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="1551" customHeight="1" spans="1:1">
+      <c r="A1551" s="13">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="1552" customHeight="1" spans="1:1">
+      <c r="A1552" s="13">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="1553" customHeight="1" spans="1:1">
+      <c r="A1553" s="13">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="1554" customHeight="1" spans="1:1">
+      <c r="A1554" s="13">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="1555" customHeight="1" spans="1:1">
+      <c r="A1555" s="13">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="1556" customHeight="1" spans="1:1">
+      <c r="A1556" s="13">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="1557" customHeight="1" spans="1:1">
+      <c r="A1557" s="13">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="1558" customHeight="1" spans="1:1">
+      <c r="A1558" s="13">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="1559" customHeight="1" spans="1:1">
+      <c r="A1559" s="13">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="1560" customHeight="1" spans="1:1">
+      <c r="A1560" s="13">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="1561" customHeight="1" spans="1:1">
+      <c r="A1561" s="13">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="1562" customHeight="1" spans="1:1">
+      <c r="A1562" s="13">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="1563" customHeight="1" spans="1:1">
+      <c r="A1563" s="13">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="1564" customHeight="1" spans="1:1">
+      <c r="A1564" s="13">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="1565" customHeight="1" spans="1:1">
+      <c r="A1565" s="13">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="1566" customHeight="1" spans="1:1">
+      <c r="A1566" s="13">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="1567" customHeight="1" spans="1:1">
+      <c r="A1567" s="13">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="1568" customHeight="1" spans="1:1">
+      <c r="A1568" s="13">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="1569" customHeight="1" spans="1:1">
+      <c r="A1569" s="13">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="1570" customHeight="1" spans="1:1">
+      <c r="A1570" s="13">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="1571" customHeight="1" spans="1:1">
+      <c r="A1571" s="13">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="1572" customHeight="1" spans="1:1">
+      <c r="A1572" s="13">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="1573" customHeight="1" spans="1:1">
+      <c r="A1573" s="13">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="1574" customHeight="1" spans="1:1">
+      <c r="A1574" s="13">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="1575" customHeight="1" spans="1:1">
+      <c r="A1575" s="13">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="1576" customHeight="1" spans="1:1">
+      <c r="A1576" s="13">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="1577" customHeight="1" spans="1:1">
+      <c r="A1577" s="13">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="1578" customHeight="1" spans="1:1">
+      <c r="A1578" s="13">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="1579" customHeight="1" spans="1:1">
+      <c r="A1579" s="13">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="1580" customHeight="1" spans="1:1">
+      <c r="A1580" s="13">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="1581" customHeight="1" spans="1:1">
+      <c r="A1581" s="13">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="1582" customHeight="1" spans="1:1">
+      <c r="A1582" s="13">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="1583" customHeight="1" spans="1:1">
+      <c r="A1583" s="13">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="1584" customHeight="1" spans="1:1">
+      <c r="A1584" s="13">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="1585" customHeight="1" spans="1:1">
+      <c r="A1585" s="13">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="1586" customHeight="1" spans="1:1">
+      <c r="A1586" s="13">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="1587" customHeight="1" spans="1:1">
+      <c r="A1587" s="13">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="1588" customHeight="1" spans="1:1">
+      <c r="A1588" s="13">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="1589" customHeight="1" spans="1:1">
+      <c r="A1589" s="13">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="1590" customHeight="1" spans="1:1">
+      <c r="A1590" s="13">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="1591" customHeight="1" spans="1:1">
+      <c r="A1591" s="13">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="1592" customHeight="1" spans="1:1">
+      <c r="A1592" s="13">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="1593" customHeight="1" spans="1:1">
+      <c r="A1593" s="13">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="1594" customHeight="1" spans="1:1">
+      <c r="A1594" s="13">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="1595" customHeight="1" spans="1:1">
+      <c r="A1595" s="13">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="1596" customHeight="1" spans="1:1">
+      <c r="A1596" s="13">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="1597" customHeight="1" spans="1:1">
+      <c r="A1597" s="13">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="1598" customHeight="1" spans="1:1">
+      <c r="A1598" s="13">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="1599" customHeight="1" spans="1:1">
+      <c r="A1599" s="13">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="1600" customHeight="1" spans="1:1">
+      <c r="A1600" s="13">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="1601" customHeight="1" spans="1:1">
+      <c r="A1601" s="13">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="1602" customHeight="1" spans="1:1">
+      <c r="A1602" s="13">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="1603" customHeight="1" spans="1:1">
+      <c r="A1603" s="13">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="1604" customHeight="1" spans="1:1">
+      <c r="A1604" s="13">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="1605" customHeight="1" spans="1:1">
+      <c r="A1605" s="13">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="1606" customHeight="1" spans="1:1">
+      <c r="A1606" s="13">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="1607" customHeight="1" spans="1:1">
+      <c r="A1607" s="13">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="1608" customHeight="1" spans="1:1">
+      <c r="A1608" s="13">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="1609" customHeight="1" spans="1:1">
+      <c r="A1609" s="13">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1610" customHeight="1" spans="1:1">
+      <c r="A1610" s="13">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="1611" customHeight="1" spans="1:1">
+      <c r="A1611" s="13">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="1612" customHeight="1" spans="1:1">
+      <c r="A1612" s="13">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="1613" customHeight="1" spans="1:1">
+      <c r="A1613" s="13">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="1614" customHeight="1" spans="1:1">
+      <c r="A1614" s="13">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="1615" customHeight="1" spans="1:1">
+      <c r="A1615" s="13">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="1616" customHeight="1" spans="1:1">
+      <c r="A1616" s="13">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="1617" customHeight="1" spans="1:1">
+      <c r="A1617" s="13">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="1618" customHeight="1" spans="1:1">
+      <c r="A1618" s="13">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="1619" customHeight="1" spans="1:1">
+      <c r="A1619" s="13">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="1620" customHeight="1" spans="1:1">
+      <c r="A1620" s="13">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="1621" customHeight="1" spans="1:1">
+      <c r="A1621" s="13">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="1622" customHeight="1" spans="1:1">
+      <c r="A1622" s="13">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="1623" customHeight="1" spans="1:1">
+      <c r="A1623" s="13">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="1624" customHeight="1" spans="1:1">
+      <c r="A1624" s="13">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="1625" customHeight="1" spans="1:1">
+      <c r="A1625" s="13">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="1626" customHeight="1" spans="1:1">
+      <c r="A1626" s="13">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="1627" customHeight="1" spans="1:1">
+      <c r="A1627" s="13">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="1628" customHeight="1" spans="1:1">
+      <c r="A1628" s="13">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="1629" customHeight="1" spans="1:1">
+      <c r="A1629" s="13">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="1630" customHeight="1" spans="1:1">
+      <c r="A1630" s="13">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="1631" customHeight="1" spans="1:1">
+      <c r="A1631" s="13">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="1632" customHeight="1" spans="1:1">
+      <c r="A1632" s="13">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="1633" customHeight="1" spans="1:1">
+      <c r="A1633" s="13">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="1634" customHeight="1" spans="1:1">
+      <c r="A1634" s="13">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="1635" customHeight="1" spans="1:1">
+      <c r="A1635" s="13">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="1636" customHeight="1" spans="1:1">
+      <c r="A1636" s="13">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="1637" customHeight="1" spans="1:1">
+      <c r="A1637" s="13">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="1638" customHeight="1" spans="1:1">
+      <c r="A1638" s="13">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="1639" customHeight="1" spans="1:1">
+      <c r="A1639" s="13">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="1640" customHeight="1" spans="1:1">
+      <c r="A1640" s="13">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="1641" customHeight="1" spans="1:1">
+      <c r="A1641" s="13">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="1642" customHeight="1" spans="1:1">
+      <c r="A1642" s="13">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="1643" customHeight="1" spans="1:1">
+      <c r="A1643" s="13">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="1644" customHeight="1" spans="1:1">
+      <c r="A1644" s="13">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="1645" customHeight="1" spans="1:1">
+      <c r="A1645" s="13">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="1646" customHeight="1" spans="1:1">
+      <c r="A1646" s="13">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="1647" customHeight="1" spans="1:1">
+      <c r="A1647" s="13">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="1648" customHeight="1" spans="1:1">
+      <c r="A1648" s="13">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="1649" customHeight="1" spans="1:1">
+      <c r="A1649" s="13">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="1650" customHeight="1" spans="1:1">
+      <c r="A1650" s="13">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="1651" customHeight="1" spans="1:1">
+      <c r="A1651" s="13">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="1652" customHeight="1" spans="1:1">
+      <c r="A1652" s="13">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="1653" customHeight="1" spans="1:1">
+      <c r="A1653" s="13">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="1654" customHeight="1" spans="1:1">
+      <c r="A1654" s="13">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="1655" customHeight="1" spans="1:1">
+      <c r="A1655" s="13">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="1656" customHeight="1" spans="1:1">
+      <c r="A1656" s="13">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="1657" customHeight="1" spans="1:1">
+      <c r="A1657" s="13">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="1658" customHeight="1" spans="1:1">
+      <c r="A1658" s="13">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="1659" customHeight="1" spans="1:1">
+      <c r="A1659" s="13">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="1660" customHeight="1" spans="1:1">
+      <c r="A1660" s="13">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="1661" customHeight="1" spans="1:1">
+      <c r="A1661" s="13">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="1662" customHeight="1" spans="1:1">
+      <c r="A1662" s="13">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="1663" customHeight="1" spans="1:1">
+      <c r="A1663" s="13">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="1664" customHeight="1" spans="1:1">
+      <c r="A1664" s="13">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="1665" customHeight="1" spans="1:1">
+      <c r="A1665" s="13">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="1666" customHeight="1" spans="1:1">
+      <c r="A1666" s="13">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="1667" customHeight="1" spans="1:1">
+      <c r="A1667" s="13">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="1668" customHeight="1" spans="1:1">
+      <c r="A1668" s="13">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="1669" customHeight="1" spans="1:1">
+      <c r="A1669" s="13">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="1670" customHeight="1" spans="1:1">
+      <c r="A1670" s="13">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="1671" customHeight="1" spans="1:1">
+      <c r="A1671" s="13">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="1672" customHeight="1" spans="1:1">
+      <c r="A1672" s="13">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="1673" customHeight="1" spans="1:1">
+      <c r="A1673" s="13">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="1674" customHeight="1" spans="1:1">
+      <c r="A1674" s="13">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="1675" customHeight="1" spans="1:1">
+      <c r="A1675" s="13">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="1676" customHeight="1" spans="1:1">
+      <c r="A1676" s="13">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="1677" customHeight="1" spans="1:1">
+      <c r="A1677" s="13">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="1678" customHeight="1" spans="1:1">
+      <c r="A1678" s="13">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="1679" customHeight="1" spans="1:1">
+      <c r="A1679" s="13">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="1680" customHeight="1" spans="1:1">
+      <c r="A1680" s="13">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="1681" customHeight="1" spans="1:1">
+      <c r="A1681" s="13">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="1682" customHeight="1" spans="1:1">
+      <c r="A1682" s="13">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="1683" customHeight="1" spans="1:1">
+      <c r="A1683" s="13">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="1684" customHeight="1" spans="1:1">
+      <c r="A1684" s="13">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="1685" customHeight="1" spans="1:1">
+      <c r="A1685" s="13">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="1686" customHeight="1" spans="1:1">
+      <c r="A1686" s="13">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="1687" customHeight="1" spans="1:1">
+      <c r="A1687" s="13">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="1688" customHeight="1" spans="1:1">
+      <c r="A1688" s="13">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="1689" customHeight="1" spans="1:1">
+      <c r="A1689" s="13">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="1690" customHeight="1" spans="1:1">
+      <c r="A1690" s="13">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="1691" customHeight="1" spans="1:1">
+      <c r="A1691" s="13">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="1692" customHeight="1" spans="1:1">
+      <c r="A1692" s="13">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="1693" customHeight="1" spans="1:1">
+      <c r="A1693" s="13">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="1694" customHeight="1" spans="1:1">
+      <c r="A1694" s="13">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="1695" customHeight="1" spans="1:1">
+      <c r="A1695" s="13">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="1696" customHeight="1" spans="1:1">
+      <c r="A1696" s="13">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="1697" customHeight="1" spans="1:1">
+      <c r="A1697" s="13">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="1698" customHeight="1" spans="1:1">
+      <c r="A1698" s="13">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="1699" customHeight="1" spans="1:1">
+      <c r="A1699" s="13">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="1700" customHeight="1" spans="1:1">
+      <c r="A1700" s="13">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="1701" customHeight="1" spans="1:1">
+      <c r="A1701" s="13">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="1702" customHeight="1" spans="1:1">
+      <c r="A1702" s="13">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="1703" customHeight="1" spans="1:1">
+      <c r="A1703" s="13">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="1704" customHeight="1" spans="1:1">
+      <c r="A1704" s="13">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="1705" customHeight="1" spans="1:1">
+      <c r="A1705" s="13">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="1706" customHeight="1" spans="1:1">
+      <c r="A1706" s="13">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="1707" customHeight="1" spans="1:1">
+      <c r="A1707" s="13">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="1708" customHeight="1" spans="1:1">
+      <c r="A1708" s="13">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="1709" customHeight="1" spans="1:1">
+      <c r="A1709" s="13">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="1710" customHeight="1" spans="1:1">
+      <c r="A1710" s="13">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="1711" customHeight="1" spans="1:1">
+      <c r="A1711" s="13">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="1712" customHeight="1" spans="1:1">
+      <c r="A1712" s="13">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="1713" customHeight="1" spans="1:1">
+      <c r="A1713" s="13">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="1714" customHeight="1" spans="1:1">
+      <c r="A1714" s="13">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="1715" customHeight="1" spans="1:1">
+      <c r="A1715" s="13">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="1716" customHeight="1" spans="1:1">
+      <c r="A1716" s="13">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="1717" customHeight="1" spans="1:1">
+      <c r="A1717" s="13">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="1718" customHeight="1" spans="1:1">
+      <c r="A1718" s="13">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="1719" customHeight="1" spans="1:1">
+      <c r="A1719" s="13">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="1720" customHeight="1" spans="1:1">
+      <c r="A1720" s="13">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="1721" customHeight="1" spans="1:1">
+      <c r="A1721" s="13">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="1722" customHeight="1" spans="1:1">
+      <c r="A1722" s="13">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="1723" customHeight="1" spans="1:1">
+      <c r="A1723" s="13">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="1724" customHeight="1" spans="1:1">
+      <c r="A1724" s="13">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="1725" customHeight="1" spans="1:1">
+      <c r="A1725" s="13">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="1726" customHeight="1" spans="1:1">
+      <c r="A1726" s="13">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="1727" customHeight="1" spans="1:1">
+      <c r="A1727" s="13">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="1728" customHeight="1" spans="1:1">
+      <c r="A1728" s="13">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="1729" customHeight="1" spans="1:1">
+      <c r="A1729" s="13">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="1730" customHeight="1" spans="1:1">
+      <c r="A1730" s="13">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="1731" customHeight="1" spans="1:1">
+      <c r="A1731" s="13">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="1732" customHeight="1" spans="1:1">
+      <c r="A1732" s="13">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="1733" customHeight="1" spans="1:1">
+      <c r="A1733" s="13">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="1734" customHeight="1" spans="1:1">
+      <c r="A1734" s="13">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="1735" customHeight="1" spans="1:1">
+      <c r="A1735" s="13">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="1736" customHeight="1" spans="1:1">
+      <c r="A1736" s="13">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="1737" customHeight="1" spans="1:1">
+      <c r="A1737" s="13">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="1738" customHeight="1" spans="1:1">
+      <c r="A1738" s="13">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="1739" customHeight="1" spans="1:1">
+      <c r="A1739" s="13">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="1740" customHeight="1" spans="1:1">
+      <c r="A1740" s="13">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="1741" customHeight="1" spans="1:1">
+      <c r="A1741" s="13">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="1742" customHeight="1" spans="1:1">
+      <c r="A1742" s="13">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="1743" customHeight="1" spans="1:1">
+      <c r="A1743" s="13">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="1744" customHeight="1" spans="1:1">
+      <c r="A1744" s="13">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="1745" customHeight="1" spans="1:1">
+      <c r="A1745" s="13">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="1746" customHeight="1" spans="1:1">
+      <c r="A1746" s="13">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="1747" customHeight="1" spans="1:1">
+      <c r="A1747" s="13">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="1748" customHeight="1" spans="1:1">
+      <c r="A1748" s="13">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="1749" customHeight="1" spans="1:1">
+      <c r="A1749" s="13">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="1750" customHeight="1" spans="1:1">
+      <c r="A1750" s="13">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="1751" customHeight="1" spans="1:1">
+      <c r="A1751" s="13">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="1752" customHeight="1" spans="1:1">
+      <c r="A1752" s="13">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="1753" customHeight="1" spans="1:1">
+      <c r="A1753" s="13">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="1754" customHeight="1" spans="1:1">
+      <c r="A1754" s="13">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="1755" customHeight="1" spans="1:1">
+      <c r="A1755" s="13">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="1756" customHeight="1" spans="1:1">
+      <c r="A1756" s="13">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="1757" customHeight="1" spans="1:1">
+      <c r="A1757" s="13">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="1758" customHeight="1" spans="1:1">
+      <c r="A1758" s="13">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="1759" customHeight="1" spans="1:1">
+      <c r="A1759" s="13">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="1760" customHeight="1" spans="1:1">
+      <c r="A1760" s="13">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="1761" customHeight="1" spans="1:1">
+      <c r="A1761" s="13">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="1762" customHeight="1" spans="1:1">
+      <c r="A1762" s="13">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="1763" customHeight="1" spans="1:1">
+      <c r="A1763" s="13">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="1764" customHeight="1" spans="1:1">
+      <c r="A1764" s="13">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="1765" customHeight="1" spans="1:1">
+      <c r="A1765" s="13">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="1766" customHeight="1" spans="1:1">
+      <c r="A1766" s="13">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="1767" customHeight="1" spans="1:1">
+      <c r="A1767" s="13">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="1768" customHeight="1" spans="1:1">
+      <c r="A1768" s="13">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="1769" customHeight="1" spans="1:1">
+      <c r="A1769" s="13">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="1770" customHeight="1" spans="1:1">
+      <c r="A1770" s="13">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="1771" customHeight="1" spans="1:1">
+      <c r="A1771" s="13">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="1772" customHeight="1" spans="1:1">
+      <c r="A1772" s="13">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="1773" customHeight="1" spans="1:1">
+      <c r="A1773" s="13">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="1774" customHeight="1" spans="1:1">
+      <c r="A1774" s="13">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="1775" customHeight="1" spans="1:1">
+      <c r="A1775" s="13">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="1776" customHeight="1" spans="1:1">
+      <c r="A1776" s="13">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="1777" customHeight="1" spans="1:1">
+      <c r="A1777" s="13">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="1778" customHeight="1" spans="1:1">
+      <c r="A1778" s="13">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="1779" customHeight="1" spans="1:1">
+      <c r="A1779" s="13">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="1780" customHeight="1" spans="1:1">
+      <c r="A1780" s="13">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="1781" customHeight="1" spans="1:1">
+      <c r="A1781" s="13">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="1782" customHeight="1" spans="1:1">
+      <c r="A1782" s="13">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="1783" customHeight="1" spans="1:1">
+      <c r="A1783" s="13">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="1784" customHeight="1" spans="1:1">
+      <c r="A1784" s="13">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="1785" customHeight="1" spans="1:1">
+      <c r="A1785" s="13">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1786" customHeight="1" spans="1:1">
+      <c r="A1786" s="13">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="1787" customHeight="1" spans="1:1">
+      <c r="A1787" s="13">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="1788" customHeight="1" spans="1:1">
+      <c r="A1788" s="13">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="1789" customHeight="1" spans="1:1">
+      <c r="A1789" s="13">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="1790" customHeight="1" spans="1:1">
+      <c r="A1790" s="13">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="1791" customHeight="1" spans="1:1">
+      <c r="A1791" s="13">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="1792" customHeight="1" spans="1:1">
+      <c r="A1792" s="13">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="1793" customHeight="1" spans="1:1">
+      <c r="A1793" s="13">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="1794" customHeight="1" spans="1:1">
+      <c r="A1794" s="13">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="1795" customHeight="1" spans="1:1">
+      <c r="A1795" s="13">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="1796" customHeight="1" spans="1:1">
+      <c r="A1796" s="13">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="1797" customHeight="1" spans="1:1">
+      <c r="A1797" s="13">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="1798" customHeight="1" spans="1:1">
+      <c r="A1798" s="13">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="1799" customHeight="1" spans="1:1">
+      <c r="A1799" s="13">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="1800" customHeight="1" spans="1:1">
+      <c r="A1800" s="13">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="1801" customHeight="1" spans="1:1">
+      <c r="A1801" s="13">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="1802" customHeight="1" spans="1:1">
+      <c r="A1802" s="13">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="1803" customHeight="1" spans="1:1">
+      <c r="A1803" s="13">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="1804" customHeight="1" spans="1:1">
+      <c r="A1804" s="13">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="1805" customHeight="1" spans="1:1">
+      <c r="A1805" s="13">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="1806" customHeight="1" spans="1:1">
+      <c r="A1806" s="13">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="1807" customHeight="1" spans="1:1">
+      <c r="A1807" s="13">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="1808" customHeight="1" spans="1:1">
+      <c r="A1808" s="13">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="1809" customHeight="1" spans="1:1">
+      <c r="A1809" s="13">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="1810" customHeight="1" spans="1:1">
+      <c r="A1810" s="13">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="1811" customHeight="1" spans="1:1">
+      <c r="A1811" s="13">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="1812" customHeight="1" spans="1:1">
+      <c r="A1812" s="13">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="1813" customHeight="1" spans="1:1">
+      <c r="A1813" s="13">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="1814" customHeight="1" spans="1:1">
+      <c r="A1814" s="13">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="1815" customHeight="1" spans="1:1">
+      <c r="A1815" s="13">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="1816" customHeight="1" spans="1:1">
+      <c r="A1816" s="13">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="1817" customHeight="1" spans="1:1">
+      <c r="A1817" s="13">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="1818" customHeight="1" spans="1:1">
+      <c r="A1818" s="13">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="1819" customHeight="1" spans="1:1">
+      <c r="A1819" s="13">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="1820" customHeight="1" spans="1:1">
+      <c r="A1820" s="13">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="1821" customHeight="1" spans="1:1">
+      <c r="A1821" s="13">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="1822" customHeight="1" spans="1:1">
+      <c r="A1822" s="13">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="1823" customHeight="1" spans="1:1">
+      <c r="A1823" s="13">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="1824" customHeight="1" spans="1:1">
+      <c r="A1824" s="13">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="1825" customHeight="1" spans="1:1">
+      <c r="A1825" s="13">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="1826" customHeight="1" spans="1:1">
+      <c r="A1826" s="13">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="1827" customHeight="1" spans="1:1">
+      <c r="A1827" s="13">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="1828" customHeight="1" spans="1:1">
+      <c r="A1828" s="13">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="1829" customHeight="1" spans="1:1">
+      <c r="A1829" s="13">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="1830" customHeight="1" spans="1:1">
+      <c r="A1830" s="13">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="1831" customHeight="1" spans="1:1">
+      <c r="A1831" s="13">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="1832" customHeight="1" spans="1:1">
+      <c r="A1832" s="13">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="1833" customHeight="1" spans="1:1">
+      <c r="A1833" s="13">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="1834" customHeight="1" spans="1:1">
+      <c r="A1834" s="13">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="1835" customHeight="1" spans="1:1">
+      <c r="A1835" s="13">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="1836" customHeight="1" spans="1:1">
+      <c r="A1836" s="13">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="1837" customHeight="1" spans="1:1">
+      <c r="A1837" s="13">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="1838" customHeight="1" spans="1:1">
+      <c r="A1838" s="13">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="1839" customHeight="1" spans="1:1">
+      <c r="A1839" s="13">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="1840" customHeight="1" spans="1:1">
+      <c r="A1840" s="13">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="1841" customHeight="1" spans="1:1">
+      <c r="A1841" s="13">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="1842" customHeight="1" spans="1:1">
+      <c r="A1842" s="13">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="1843" customHeight="1" spans="1:1">
+      <c r="A1843" s="13">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="1844" customHeight="1" spans="1:1">
+      <c r="A1844" s="13">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="1845" customHeight="1" spans="1:1">
+      <c r="A1845" s="13">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="1846" customHeight="1" spans="1:1">
+      <c r="A1846" s="13">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="1847" customHeight="1" spans="1:1">
+      <c r="A1847" s="13">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="1848" customHeight="1" spans="1:1">
+      <c r="A1848" s="13">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="1849" customHeight="1" spans="1:1">
+      <c r="A1849" s="13">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="1850" customHeight="1" spans="1:1">
+      <c r="A1850" s="13">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="1851" customHeight="1" spans="1:1">
+      <c r="A1851" s="13">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="1852" customHeight="1" spans="1:1">
+      <c r="A1852" s="13">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="1853" customHeight="1" spans="1:1">
+      <c r="A1853" s="13">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="1854" customHeight="1" spans="1:1">
+      <c r="A1854" s="13">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="1855" customHeight="1" spans="1:1">
+      <c r="A1855" s="13">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="1856" customHeight="1" spans="1:1">
+      <c r="A1856" s="13">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="1857" customHeight="1" spans="1:1">
+      <c r="A1857" s="13">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="1858" customHeight="1" spans="1:1">
+      <c r="A1858" s="13">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="1859" customHeight="1" spans="1:1">
+      <c r="A1859" s="13">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="1860" customHeight="1" spans="1:1">
+      <c r="A1860" s="13">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="1861" customHeight="1" spans="1:1">
+      <c r="A1861" s="13">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="1862" customHeight="1" spans="1:1">
+      <c r="A1862" s="13">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="1863" customHeight="1" spans="1:1">
+      <c r="A1863" s="13">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="1864" customHeight="1" spans="1:1">
+      <c r="A1864" s="13">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="1865" customHeight="1" spans="1:1">
+      <c r="A1865" s="13">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="1866" customHeight="1" spans="1:1">
+      <c r="A1866" s="13">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="1867" customHeight="1" spans="1:1">
+      <c r="A1867" s="13">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="1868" customHeight="1" spans="1:1">
+      <c r="A1868" s="13">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="1869" customHeight="1" spans="1:1">
+      <c r="A1869" s="13">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="1870" customHeight="1" spans="1:1">
+      <c r="A1870" s="13">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="1871" customHeight="1" spans="1:1">
+      <c r="A1871" s="13">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="1872" customHeight="1" spans="1:1">
+      <c r="A1872" s="13">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="1873" customHeight="1" spans="1:1">
+      <c r="A1873" s="13">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="1874" customHeight="1" spans="1:1">
+      <c r="A1874" s="13">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="1875" customHeight="1" spans="1:1">
+      <c r="A1875" s="13">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="1876" customHeight="1" spans="1:1">
+      <c r="A1876" s="13">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="1877" customHeight="1" spans="1:1">
+      <c r="A1877" s="13">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="1878" customHeight="1" spans="1:1">
+      <c r="A1878" s="13">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="1879" customHeight="1" spans="1:1">
+      <c r="A1879" s="13">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="1880" customHeight="1" spans="1:1">
+      <c r="A1880" s="13">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="1881" customHeight="1" spans="1:1">
+      <c r="A1881" s="13">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="1882" customHeight="1" spans="1:1">
+      <c r="A1882" s="13">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="1883" customHeight="1" spans="1:1">
+      <c r="A1883" s="13">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="1884" customHeight="1" spans="1:1">
+      <c r="A1884" s="13">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="1885" customHeight="1" spans="1:1">
+      <c r="A1885" s="13">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="1886" customHeight="1" spans="1:1">
+      <c r="A1886" s="13">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="1887" customHeight="1" spans="1:1">
+      <c r="A1887" s="13">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="1888" customHeight="1" spans="1:1">
+      <c r="A1888" s="13">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="1889" customHeight="1" spans="1:1">
+      <c r="A1889" s="13">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="1890" customHeight="1" spans="1:1">
+      <c r="A1890" s="13">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="1891" customHeight="1" spans="1:1">
+      <c r="A1891" s="13">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="1892" customHeight="1" spans="1:1">
+      <c r="A1892" s="13">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="1893" customHeight="1" spans="1:1">
+      <c r="A1893" s="13">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="1894" customHeight="1" spans="1:1">
+      <c r="A1894" s="13">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="1895" customHeight="1" spans="1:1">
+      <c r="A1895" s="13">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="1896" customHeight="1" spans="1:1">
+      <c r="A1896" s="13">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="1897" customHeight="1" spans="1:1">
+      <c r="A1897" s="13">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="1898" customHeight="1" spans="1:1">
+      <c r="A1898" s="13">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="1899" customHeight="1" spans="1:1">
+      <c r="A1899" s="13">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="1900" customHeight="1" spans="1:1">
+      <c r="A1900" s="13">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="1901" customHeight="1" spans="1:1">
+      <c r="A1901" s="13">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="1902" customHeight="1" spans="1:1">
+      <c r="A1902" s="13">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="1903" customHeight="1" spans="1:1">
+      <c r="A1903" s="13">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="1904" customHeight="1" spans="1:1">
+      <c r="A1904" s="13">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="1905" customHeight="1" spans="1:1">
+      <c r="A1905" s="13">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="1906" customHeight="1" spans="1:1">
+      <c r="A1906" s="13">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="1907" customHeight="1" spans="1:1">
+      <c r="A1907" s="13">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="1908" customHeight="1" spans="1:1">
+      <c r="A1908" s="13">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="1909" customHeight="1" spans="1:1">
+      <c r="A1909" s="13">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="1910" customHeight="1" spans="1:1">
+      <c r="A1910" s="13">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="1911" customHeight="1" spans="1:1">
+      <c r="A1911" s="13">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="1912" customHeight="1" spans="1:1">
+      <c r="A1912" s="13">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="1913" customHeight="1" spans="1:1">
+      <c r="A1913" s="13">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="1914" customHeight="1" spans="1:1">
+      <c r="A1914" s="13">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="1915" customHeight="1" spans="1:1">
+      <c r="A1915" s="13">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1916" customHeight="1" spans="1:1">
+      <c r="A1916" s="13">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="1917" customHeight="1" spans="1:1">
+      <c r="A1917" s="13">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="1918" customHeight="1" spans="1:1">
+      <c r="A1918" s="13">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="1919" customHeight="1" spans="1:1">
+      <c r="A1919" s="13">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="1920" customHeight="1" spans="1:1">
+      <c r="A1920" s="13">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="1921" customHeight="1" spans="1:1">
+      <c r="A1921" s="13">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="1922" customHeight="1" spans="1:1">
+      <c r="A1922" s="13">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="1923" customHeight="1" spans="1:1">
+      <c r="A1923" s="13">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="1924" customHeight="1" spans="1:1">
+      <c r="A1924" s="13">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="1925" customHeight="1" spans="1:1">
+      <c r="A1925" s="13">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="1926" customHeight="1" spans="1:1">
+      <c r="A1926" s="13">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="1927" customHeight="1" spans="1:1">
+      <c r="A1927" s="13">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="1928" customHeight="1" spans="1:1">
+      <c r="A1928" s="13">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="1929" customHeight="1" spans="1:1">
+      <c r="A1929" s="13">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="1930" customHeight="1" spans="1:1">
+      <c r="A1930" s="13">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="1931" customHeight="1" spans="1:1">
+      <c r="A1931" s="13">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="1932" customHeight="1" spans="1:1">
+      <c r="A1932" s="13">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="1933" customHeight="1" spans="1:1">
+      <c r="A1933" s="13">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="1934" customHeight="1" spans="1:1">
+      <c r="A1934" s="13">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="1935" customHeight="1" spans="1:1">
+      <c r="A1935" s="13">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="1936" customHeight="1" spans="1:1">
+      <c r="A1936" s="13">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="1937" customHeight="1" spans="1:1">
+      <c r="A1937" s="13">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="1938" customHeight="1" spans="1:1">
+      <c r="A1938" s="13">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="1939" customHeight="1" spans="1:1">
+      <c r="A1939" s="13">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="1940" customHeight="1" spans="1:1">
+      <c r="A1940" s="13">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="1941" customHeight="1" spans="1:1">
+      <c r="A1941" s="13">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="1942" customHeight="1" spans="1:1">
+      <c r="A1942" s="13">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="1943" customHeight="1" spans="1:1">
+      <c r="A1943" s="13">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="1944" customHeight="1" spans="1:1">
+      <c r="A1944" s="13">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="1945" customHeight="1" spans="1:1">
+      <c r="A1945" s="13">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="1946" customHeight="1" spans="1:1">
+      <c r="A1946" s="13">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="1947" customHeight="1" spans="1:1">
+      <c r="A1947" s="13">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="1948" customHeight="1" spans="1:1">
+      <c r="A1948" s="13">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="1949" customHeight="1" spans="1:1">
+      <c r="A1949" s="13">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="1950" customHeight="1" spans="1:1">
+      <c r="A1950" s="13">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="1951" customHeight="1" spans="1:1">
+      <c r="A1951" s="13">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="1952" customHeight="1" spans="1:1">
+      <c r="A1952" s="13">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="1953" customHeight="1" spans="1:1">
+      <c r="A1953" s="13">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="1954" customHeight="1" spans="1:1">
+      <c r="A1954" s="13">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="1955" customHeight="1" spans="1:1">
+      <c r="A1955" s="13">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="1956" customHeight="1" spans="1:1">
+      <c r="A1956" s="13">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="1957" customHeight="1" spans="1:1">
+      <c r="A1957" s="13">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="1958" customHeight="1" spans="1:1">
+      <c r="A1958" s="13">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="1959" customHeight="1" spans="1:1">
+      <c r="A1959" s="13">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="1960" customHeight="1" spans="1:1">
+      <c r="A1960" s="13">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="1961" customHeight="1" spans="1:1">
+      <c r="A1961" s="13">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="1962" customHeight="1" spans="1:1">
+      <c r="A1962" s="13">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="1963" customHeight="1" spans="1:1">
+      <c r="A1963" s="13">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="1964" customHeight="1" spans="1:1">
+      <c r="A1964" s="13">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="1965" customHeight="1" spans="1:1">
+      <c r="A1965" s="13">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="1966" customHeight="1" spans="1:1">
+      <c r="A1966" s="13">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="1967" customHeight="1" spans="1:1">
+      <c r="A1967" s="13">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="1968" customHeight="1" spans="1:1">
+      <c r="A1968" s="13">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="1969" customHeight="1" spans="1:1">
+      <c r="A1969" s="13">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="1970" customHeight="1" spans="1:1">
+      <c r="A1970" s="13">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="1971" customHeight="1" spans="1:1">
+      <c r="A1971" s="13">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="1972" customHeight="1" spans="1:1">
+      <c r="A1972" s="13">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="1973" customHeight="1" spans="1:1">
+      <c r="A1973" s="13">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="1974" customHeight="1" spans="1:1">
+      <c r="A1974" s="13">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="1975" customHeight="1" spans="1:1">
+      <c r="A1975" s="13">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1976" customHeight="1" spans="1:1">
+      <c r="A1976" s="13">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="1977" customHeight="1" spans="1:1">
+      <c r="A1977" s="13">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="1978" customHeight="1" spans="1:1">
+      <c r="A1978" s="13">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="1979" customHeight="1" spans="1:1">
+      <c r="A1979" s="13">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="1980" customHeight="1" spans="1:1">
+      <c r="A1980" s="13">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="1981" customHeight="1" spans="1:1">
+      <c r="A1981" s="13">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="1982" customHeight="1" spans="1:1">
+      <c r="A1982" s="13">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="1983" customHeight="1" spans="1:1">
+      <c r="A1983" s="13">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="1984" customHeight="1" spans="1:1">
+      <c r="A1984" s="13">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="1985" customHeight="1" spans="1:1">
+      <c r="A1985" s="13">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="1986" customHeight="1" spans="1:1">
+      <c r="A1986" s="13">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="1987" customHeight="1" spans="1:1">
+      <c r="A1987" s="13">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="1988" customHeight="1" spans="1:1">
+      <c r="A1988" s="13">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="1989" customHeight="1" spans="1:1">
+      <c r="A1989" s="13">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="1990" customHeight="1" spans="1:1">
+      <c r="A1990" s="13">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="1991" customHeight="1" spans="1:1">
+      <c r="A1991" s="13">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="1992" customHeight="1" spans="1:1">
+      <c r="A1992" s="13">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="1993" customHeight="1" spans="1:1">
+      <c r="A1993" s="13">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="1994" customHeight="1" spans="1:1">
+      <c r="A1994" s="13">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="1995" customHeight="1" spans="1:1">
+      <c r="A1995" s="13">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="1996" customHeight="1" spans="1:1">
+      <c r="A1996" s="13">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="1997" customHeight="1" spans="1:1">
+      <c r="A1997" s="13">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="1998" customHeight="1" spans="1:1">
+      <c r="A1998" s="13">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="1999" customHeight="1" spans="1:1">
+      <c r="A1999" s="13">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="2000" customHeight="1" spans="1:1">
+      <c r="A2000" s="13">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="2001" customHeight="1" spans="1:1">
+      <c r="A2001" s="13">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="2002" customHeight="1" spans="1:1">
+      <c r="A2002" s="13">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="2003" customHeight="1" spans="1:1">
+      <c r="A2003" s="13">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="2004" customHeight="1" spans="1:1">
+      <c r="A2004" s="13">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="2005" customHeight="1" spans="1:1">
+      <c r="A2005" s="13">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="2006" customHeight="1" spans="1:1">
+      <c r="A2006" s="13">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="2007" customHeight="1" spans="1:1">
+      <c r="A2007" s="13">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="2008" customHeight="1" spans="1:1">
+      <c r="A2008" s="13">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="2009" customHeight="1" spans="1:1">
+      <c r="A2009" s="13">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="2010" customHeight="1" spans="1:1">
+      <c r="A2010" s="13">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="2011" customHeight="1" spans="1:1">
+      <c r="A2011" s="13">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="2012" customHeight="1" spans="1:1">
+      <c r="A2012" s="13">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="2013" customHeight="1" spans="1:1">
+      <c r="A2013" s="13">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="2014" customHeight="1" spans="1:1">
+      <c r="A2014" s="13">
+        <v>2013</v>
       </c>
     </row>
   </sheetData>
@@ -3356,7 +11528,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:U2"/>
   <sheetViews>
@@ -3364,9 +11536,9 @@
       <selection activeCell="A1" sqref="A1:U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.9" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <sheetData>
-    <row r="1" ht="16.3" spans="1:21">
+    <row r="1" ht="17.25" spans="1:21">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
@@ -3399,7 +11571,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" ht="32.6" spans="1:21">
+    <row r="2" ht="34.5" spans="1:21">
       <c r="A2" s="7"/>
       <c r="B2" s="8" t="s">
         <v>21</v>
@@ -3475,7 +11647,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3485,14 +11657,14 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.7522935779817" defaultRowHeight="25.5" customHeight="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="25.5" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="3" width="15.7522935779817" style="1"/>
-    <col min="4" max="4" width="20.8715596330275" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1284403669725" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1284403669725" style="1" customWidth="1"/>
+    <col min="1" max="3" width="15.75" style="1"/>
+    <col min="4" max="4" width="20.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
     <col min="7" max="7" width="20" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="15.7522935779817" style="1"/>
+    <col min="8" max="16384" width="15.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="36.75" customHeight="1" spans="1:7">
